--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7127,28 +7127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5760.500893182288</v>
+        <v>5931.154050427762</v>
       </c>
       <c r="AB2" t="n">
-        <v>7881.77145741589</v>
+        <v>8115.266635845111</v>
       </c>
       <c r="AC2" t="n">
-        <v>7129.546251655536</v>
+        <v>7340.756977968006</v>
       </c>
       <c r="AD2" t="n">
-        <v>5760500.893182288</v>
+        <v>5931154.050427762</v>
       </c>
       <c r="AE2" t="n">
-        <v>7881771.45741589</v>
+        <v>8115266.635845111</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383485497575042e-07</v>
+        <v>9.960857644696972e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.2275390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>7129546.251655537</v>
+        <v>7340756.977968006</v>
       </c>
     </row>
     <row r="3">
@@ -7233,28 +7233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2715.833226935222</v>
+        <v>2837.618551362861</v>
       </c>
       <c r="AB3" t="n">
-        <v>3715.9228351989</v>
+        <v>3882.554888870126</v>
       </c>
       <c r="AC3" t="n">
-        <v>3361.280375137831</v>
+        <v>3512.009299476226</v>
       </c>
       <c r="AD3" t="n">
-        <v>2715833.226935222</v>
+        <v>2837618.55136286</v>
       </c>
       <c r="AE3" t="n">
-        <v>3715922.8351989</v>
+        <v>3882554.888870127</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.50844664228258e-07</v>
+        <v>1.574285392232457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.85970052083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3361280.375137832</v>
+        <v>3512009.299476226</v>
       </c>
     </row>
     <row r="4">
@@ -7339,28 +7339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2206.996255249363</v>
+        <v>2304.561060158789</v>
       </c>
       <c r="AB4" t="n">
-        <v>3019.709642235399</v>
+        <v>3153.202112567897</v>
       </c>
       <c r="AC4" t="n">
-        <v>2731.512792169441</v>
+        <v>2852.264928491257</v>
       </c>
       <c r="AD4" t="n">
-        <v>2206996.255249363</v>
+        <v>2304561.060158789</v>
       </c>
       <c r="AE4" t="n">
-        <v>3019709.642235399</v>
+        <v>3153202.112567897</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.711934815431077e-07</v>
+        <v>1.79696221332185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.64615885416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2731512.792169441</v>
+        <v>2852264.928491257</v>
       </c>
     </row>
     <row r="5">
@@ -7445,28 +7445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1996.055099681144</v>
+        <v>2093.534563735997</v>
       </c>
       <c r="AB5" t="n">
-        <v>2731.090647119794</v>
+        <v>2864.466350330086</v>
       </c>
       <c r="AC5" t="n">
-        <v>2470.439188868478</v>
+        <v>2591.085702158354</v>
       </c>
       <c r="AD5" t="n">
-        <v>1996055.099681144</v>
+        <v>2093534.563735997</v>
       </c>
       <c r="AE5" t="n">
-        <v>2731090.647119794</v>
+        <v>2864466.350330086</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034682384393455e-06</v>
+        <v>1.914433305905859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2470439.188868478</v>
+        <v>2591085.702158354</v>
       </c>
     </row>
     <row r="6">
@@ -7551,28 +7551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1882.330601254447</v>
+        <v>1967.614554204173</v>
       </c>
       <c r="AB6" t="n">
-        <v>2575.48777120161</v>
+        <v>2692.17703808989</v>
       </c>
       <c r="AC6" t="n">
-        <v>2329.686833037918</v>
+        <v>2435.239440068794</v>
       </c>
       <c r="AD6" t="n">
-        <v>1882330.601254447</v>
+        <v>1967614.554204173</v>
       </c>
       <c r="AE6" t="n">
-        <v>2575487.77120161</v>
+        <v>2692177.03808989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.075203242977353e-06</v>
+        <v>1.989407503231535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.13411458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2329686.833037918</v>
+        <v>2435239.440068794</v>
       </c>
     </row>
     <row r="7">
@@ -7657,28 +7657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1797.862260129989</v>
+        <v>1883.231464425736</v>
       </c>
       <c r="AB7" t="n">
-        <v>2459.914460394919</v>
+        <v>2576.720371935847</v>
       </c>
       <c r="AC7" t="n">
-        <v>2225.143676806456</v>
+        <v>2330.801796088045</v>
       </c>
       <c r="AD7" t="n">
-        <v>1797862.260129989</v>
+        <v>1883231.464425736</v>
       </c>
       <c r="AE7" t="n">
-        <v>2459914.460394919</v>
+        <v>2576720.371935847</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.102186026688751e-06</v>
+        <v>2.039332717579739e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.78743489583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2225143.676806456</v>
+        <v>2330801.796088045</v>
       </c>
     </row>
     <row r="8">
@@ -7763,28 +7763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1744.555694305718</v>
+        <v>1829.924898601465</v>
       </c>
       <c r="AB8" t="n">
-        <v>2386.978065314443</v>
+        <v>2503.783976855372</v>
       </c>
       <c r="AC8" t="n">
-        <v>2159.168228905588</v>
+        <v>2264.826348187177</v>
       </c>
       <c r="AD8" t="n">
-        <v>1744555.694305718</v>
+        <v>1829924.898601465</v>
       </c>
       <c r="AE8" t="n">
-        <v>2386978.065314443</v>
+        <v>2503783.976855372</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.122259723913493e-06</v>
+        <v>2.076474313029095e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.5400390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2159168.228905588</v>
+        <v>2264826.348187177</v>
       </c>
     </row>
     <row r="9">
@@ -7869,28 +7869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1705.228693632542</v>
+        <v>1790.427305727697</v>
       </c>
       <c r="AB9" t="n">
-        <v>2333.169128008584</v>
+        <v>2449.741627774665</v>
       </c>
       <c r="AC9" t="n">
-        <v>2110.494741054882</v>
+        <v>2215.941725053819</v>
       </c>
       <c r="AD9" t="n">
-        <v>1705228.693632542</v>
+        <v>1790427.305727697</v>
       </c>
       <c r="AE9" t="n">
-        <v>2333169.128008584</v>
+        <v>2449741.627774665</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.137104923256442e-06</v>
+        <v>2.103941818500944e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.3642578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2110494.741054882</v>
+        <v>2215941.725053819</v>
       </c>
     </row>
     <row r="10">
@@ -7975,28 +7975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1672.716288378596</v>
+        <v>1757.914900473751</v>
       </c>
       <c r="AB10" t="n">
-        <v>2288.684220794045</v>
+        <v>2405.256720560126</v>
       </c>
       <c r="AC10" t="n">
-        <v>2070.25541094994</v>
+        <v>2175.702394948877</v>
       </c>
       <c r="AD10" t="n">
-        <v>1672716.288378596</v>
+        <v>1757914.900473751</v>
       </c>
       <c r="AE10" t="n">
-        <v>2288684.220794045</v>
+        <v>2405256.720560126</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.149149141591287e-06</v>
+        <v>2.126226775770557e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.22428385416667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2070255.41094994</v>
+        <v>2175702.394948877</v>
       </c>
     </row>
     <row r="11">
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1644.713321101375</v>
+        <v>1717.887014291995</v>
       </c>
       <c r="AB11" t="n">
-        <v>2250.369325561626</v>
+        <v>2350.488800780541</v>
       </c>
       <c r="AC11" t="n">
-        <v>2035.597235543209</v>
+        <v>2126.161448565797</v>
       </c>
       <c r="AD11" t="n">
-        <v>1644713.321101375</v>
+        <v>1717887.014291995</v>
       </c>
       <c r="AE11" t="n">
-        <v>2250369.325561626</v>
+        <v>2350488.800780541</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.158859209086046e-06</v>
+        <v>2.144192942871641e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.11360677083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2035597.235543209</v>
+        <v>2126161.448565797</v>
       </c>
     </row>
     <row r="12">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1623.056914806872</v>
+        <v>1696.230607997492</v>
       </c>
       <c r="AB12" t="n">
-        <v>2220.738075056272</v>
+        <v>2320.857550275186</v>
       </c>
       <c r="AC12" t="n">
-        <v>2008.793949998364</v>
+        <v>2099.358163020952</v>
       </c>
       <c r="AD12" t="n">
-        <v>1623056.914806872</v>
+        <v>1696230.607997492</v>
       </c>
       <c r="AE12" t="n">
-        <v>2220738.075056272</v>
+        <v>2320857.550275187</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.166421857807926e-06</v>
+        <v>2.158185823017677e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.02734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2008793.949998364</v>
+        <v>2099358.163020952</v>
       </c>
     </row>
     <row r="13">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1588.099649233394</v>
+        <v>1673.38351267457</v>
       </c>
       <c r="AB13" t="n">
-        <v>2172.908002092925</v>
+        <v>2289.597146511656</v>
       </c>
       <c r="AC13" t="n">
-        <v>1965.528712068711</v>
+        <v>2071.08120831836</v>
       </c>
       <c r="AD13" t="n">
-        <v>1588099.649233394</v>
+        <v>1673383.51267457</v>
       </c>
       <c r="AE13" t="n">
-        <v>2172908.002092925</v>
+        <v>2289597.146511656</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.173424310328185e-06</v>
+        <v>2.171142193523266e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1965528.712068711</v>
+        <v>2071081.208318361</v>
       </c>
     </row>
     <row r="14">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1570.731082073174</v>
+        <v>1656.014945514349</v>
       </c>
       <c r="AB14" t="n">
-        <v>2149.143562257208</v>
+        <v>2265.832706675938</v>
       </c>
       <c r="AC14" t="n">
-        <v>1944.032317017313</v>
+        <v>2049.584813266963</v>
       </c>
       <c r="AD14" t="n">
-        <v>1570731.082073174</v>
+        <v>1656014.945514349</v>
       </c>
       <c r="AE14" t="n">
-        <v>2149143.562257208</v>
+        <v>2265832.706675938</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.178279344075564e-06</v>
+        <v>2.180125277073809e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.89713541666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1944032.317017313</v>
+        <v>2049584.813266963</v>
       </c>
     </row>
     <row r="15">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1552.641961483893</v>
+        <v>1637.925824925069</v>
       </c>
       <c r="AB15" t="n">
-        <v>2124.393229431276</v>
+        <v>2241.082373850007</v>
       </c>
       <c r="AC15" t="n">
-        <v>1921.644121218978</v>
+        <v>2027.196617468628</v>
       </c>
       <c r="AD15" t="n">
-        <v>1552641.961483893</v>
+        <v>1637925.824925069</v>
       </c>
       <c r="AE15" t="n">
-        <v>2124393.229431276</v>
+        <v>2241082.373850007</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.183507841957358e-06</v>
+        <v>2.189799367051315e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.84016927083333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1921644.121218978</v>
+        <v>2027196.617468628</v>
       </c>
     </row>
     <row r="16">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1536.331886812628</v>
+        <v>1621.615750253804</v>
       </c>
       <c r="AB16" t="n">
-        <v>2102.07706571634</v>
+        <v>2218.766210135071</v>
       </c>
       <c r="AC16" t="n">
-        <v>1901.457780848063</v>
+        <v>2007.010277097713</v>
       </c>
       <c r="AD16" t="n">
-        <v>1536331.886812628</v>
+        <v>1621615.750253804</v>
       </c>
       <c r="AE16" t="n">
-        <v>2102077.06571634</v>
+        <v>2218766.210135071</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.187989411570323e-06</v>
+        <v>2.198091444174892e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.79134114583333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1901457.780848063</v>
+        <v>2007010.277097713</v>
       </c>
     </row>
     <row r="17">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1520.622605162648</v>
+        <v>1605.906468603823</v>
       </c>
       <c r="AB17" t="n">
-        <v>2080.582933518243</v>
+        <v>2197.272077936974</v>
       </c>
       <c r="AC17" t="n">
-        <v>1882.015018459749</v>
+        <v>1987.567514709398</v>
       </c>
       <c r="AD17" t="n">
-        <v>1520622.605162648</v>
+        <v>1605906.468603823</v>
       </c>
       <c r="AE17" t="n">
-        <v>2080582.933518243</v>
+        <v>2197272.077936974</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>2.204137750410834e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.75716145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1882015.018459749</v>
+        <v>1987567.514709398</v>
       </c>
     </row>
     <row r="18">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1505.380481978235</v>
+        <v>1590.664345419411</v>
       </c>
       <c r="AB18" t="n">
-        <v>2059.727988142313</v>
+        <v>2176.417132561043</v>
       </c>
       <c r="AC18" t="n">
-        <v>1863.150439800397</v>
+        <v>1968.702936050047</v>
       </c>
       <c r="AD18" t="n">
-        <v>1505380.481978235</v>
+        <v>1590664.345419411</v>
       </c>
       <c r="AE18" t="n">
-        <v>2059727.988142313</v>
+        <v>2176417.132561043</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.195178596157789e-06</v>
+        <v>2.211393317893964e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1863150.439800397</v>
+        <v>1968702.936050047</v>
       </c>
     </row>
     <row r="19">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1490.975260438057</v>
+        <v>1576.259123879233</v>
       </c>
       <c r="AB19" t="n">
-        <v>2040.01812851752</v>
+        <v>2156.70727293625</v>
       </c>
       <c r="AC19" t="n">
-        <v>1845.321661515233</v>
+        <v>1950.874157764883</v>
       </c>
       <c r="AD19" t="n">
-        <v>1490975.260438057</v>
+        <v>1576259.123879233</v>
       </c>
       <c r="AE19" t="n">
-        <v>2040018.12851752</v>
+        <v>2156707.27293625</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.19872650543472e-06</v>
+        <v>2.217957878950129e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.67740885416667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1845321.661515233</v>
+        <v>1950874.157764883</v>
       </c>
     </row>
     <row r="20">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1478.371815899839</v>
+        <v>1563.655679341015</v>
       </c>
       <c r="AB20" t="n">
-        <v>2022.773539675599</v>
+        <v>2139.462684094329</v>
       </c>
       <c r="AC20" t="n">
-        <v>1829.722872029453</v>
+        <v>1935.275368279102</v>
       </c>
       <c r="AD20" t="n">
-        <v>1478371.815899839</v>
+        <v>1563655.679341014</v>
       </c>
       <c r="AE20" t="n">
-        <v>2022773.539675599</v>
+        <v>2139462.684094329</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201247388342013e-06</v>
+        <v>2.222622172332141e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.64973958333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1829722.872029453</v>
+        <v>1935275.368279102</v>
       </c>
     </row>
     <row r="21">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1466.771963774273</v>
+        <v>1552.055827215448</v>
       </c>
       <c r="AB21" t="n">
-        <v>2006.90211024804</v>
+        <v>2123.591254666771</v>
       </c>
       <c r="AC21" t="n">
-        <v>1815.366189550769</v>
+        <v>1920.918685800419</v>
       </c>
       <c r="AD21" t="n">
-        <v>1466771.963774273</v>
+        <v>1552055.827215448</v>
       </c>
       <c r="AE21" t="n">
-        <v>2006902.11024804</v>
+        <v>2123591.254666771</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.202927976946875e-06</v>
+        <v>2.225731701253482e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.63346354166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1815366.189550769</v>
+        <v>1920918.685800419</v>
       </c>
     </row>
     <row r="22">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1451.908275645896</v>
+        <v>1537.192139087071</v>
       </c>
       <c r="AB22" t="n">
-        <v>1986.564956411155</v>
+        <v>2103.254100829885</v>
       </c>
       <c r="AC22" t="n">
-        <v>1796.969985132701</v>
+        <v>1902.522481382351</v>
       </c>
       <c r="AD22" t="n">
-        <v>1451908.275645896</v>
+        <v>1537192.139087071</v>
       </c>
       <c r="AE22" t="n">
-        <v>1986564.956411155</v>
+        <v>2103254.100829885</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.205635591921376e-06</v>
+        <v>2.230741497848977e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1796969.985132701</v>
+        <v>1902522.481382351</v>
       </c>
     </row>
     <row r="23">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1442.269847520304</v>
+        <v>1527.55371096148</v>
       </c>
       <c r="AB23" t="n">
-        <v>1973.377233832282</v>
+        <v>2090.066378251013</v>
       </c>
       <c r="AC23" t="n">
-        <v>1785.040880287671</v>
+        <v>1890.593376537321</v>
       </c>
       <c r="AD23" t="n">
-        <v>1442269.847520304</v>
+        <v>1527553.71096148</v>
       </c>
       <c r="AE23" t="n">
-        <v>1973377.233832282</v>
+        <v>2090066.378251013</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206662618291014e-06</v>
+        <v>2.23264176552313e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5927734375</v>
       </c>
       <c r="AH23" t="n">
-        <v>1785040.880287671</v>
+        <v>1890593.376537321</v>
       </c>
     </row>
     <row r="24">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1429.959905592036</v>
+        <v>1515.243769033211</v>
       </c>
       <c r="AB24" t="n">
-        <v>1956.534228209716</v>
+        <v>2073.223372628446</v>
       </c>
       <c r="AC24" t="n">
-        <v>1769.805347482416</v>
+        <v>1875.357843732065</v>
       </c>
       <c r="AD24" t="n">
-        <v>1429959.905592036</v>
+        <v>1515243.769033212</v>
       </c>
       <c r="AE24" t="n">
-        <v>1956534.228209716</v>
+        <v>2073223.372628446</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.2089967691311e-06</v>
+        <v>2.23696055569166e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.56998697916667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1769805.347482416</v>
+        <v>1875357.843732066</v>
       </c>
     </row>
     <row r="25">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1418.705596962912</v>
+        <v>1503.989460404088</v>
       </c>
       <c r="AB25" t="n">
-        <v>1941.135586638293</v>
+        <v>2057.824731057024</v>
       </c>
       <c r="AC25" t="n">
-        <v>1755.87633065044</v>
+        <v>1861.42882690009</v>
       </c>
       <c r="AD25" t="n">
-        <v>1418705.596962912</v>
+        <v>1503989.460404088</v>
       </c>
       <c r="AE25" t="n">
-        <v>1941135.586638293</v>
+        <v>2057824.731057024</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210023795500738e-06</v>
+        <v>2.238860823365813e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH25" t="n">
-        <v>1755876.33065044</v>
+        <v>1861428.82690009</v>
       </c>
     </row>
     <row r="26">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1407.777385968981</v>
+        <v>1493.061249410157</v>
       </c>
       <c r="AB26" t="n">
-        <v>1926.183126237754</v>
+        <v>2042.872270656484</v>
       </c>
       <c r="AC26" t="n">
-        <v>1742.350912084619</v>
+        <v>1847.903408334269</v>
       </c>
       <c r="AD26" t="n">
-        <v>1407777.385968981</v>
+        <v>1493061.249410156</v>
       </c>
       <c r="AE26" t="n">
-        <v>1926183.126237754</v>
+        <v>2042872.270656484</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.211330919971186e-06</v>
+        <v>2.241279345860189e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>1742350.912084619</v>
+        <v>1847903.408334268</v>
       </c>
     </row>
     <row r="27">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1408.278951888463</v>
+        <v>1481.537896425103</v>
       </c>
       <c r="AB27" t="n">
-        <v>1926.869390856315</v>
+        <v>2027.10551072788</v>
       </c>
       <c r="AC27" t="n">
-        <v>1742.971680571163</v>
+        <v>1833.641405844464</v>
       </c>
       <c r="AD27" t="n">
-        <v>1408278.951888463</v>
+        <v>1481537.896425103</v>
       </c>
       <c r="AE27" t="n">
-        <v>1926869.390856315</v>
+        <v>2027105.51072788</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.211984482206411e-06</v>
+        <v>2.242488607107378e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH27" t="n">
-        <v>1742971.680571163</v>
+        <v>1833641.405844464</v>
       </c>
     </row>
     <row r="28">
@@ -9883,28 +9883,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1410.95291125964</v>
+        <v>1484.21185579628</v>
       </c>
       <c r="AB28" t="n">
-        <v>1930.528020034722</v>
+        <v>2030.764139906286</v>
       </c>
       <c r="AC28" t="n">
-        <v>1746.2811353157</v>
+        <v>1836.950860589001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1410952.91125964</v>
+        <v>1484211.85579628</v>
       </c>
       <c r="AE28" t="n">
-        <v>1930528.020034722</v>
+        <v>2030764.139906286</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>2.24283411032086e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.53580729166667</v>
       </c>
       <c r="AH28" t="n">
-        <v>1746281.1353157</v>
+        <v>1836950.860589001</v>
       </c>
     </row>
     <row r="29">
@@ -9989,28 +9989,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1416.475073773369</v>
+        <v>1489.73401831001</v>
       </c>
       <c r="AB29" t="n">
-        <v>1938.083686406623</v>
+        <v>2038.319806278187</v>
       </c>
       <c r="AC29" t="n">
-        <v>1753.115699493512</v>
+        <v>1843.785424766812</v>
       </c>
       <c r="AD29" t="n">
-        <v>1416475.073773369</v>
+        <v>1489734.01831001</v>
       </c>
       <c r="AE29" t="n">
-        <v>1938083.686406623</v>
+        <v>2038319.806278187</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>2.242661358714119e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.53743489583333</v>
       </c>
       <c r="AH29" t="n">
-        <v>1753115.699493512</v>
+        <v>1843785.424766812</v>
       </c>
     </row>
     <row r="30">
@@ -10095,28 +10095,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1420.50711020112</v>
+        <v>1493.766054737761</v>
       </c>
       <c r="AB30" t="n">
-        <v>1943.600496527965</v>
+        <v>2043.836616399529</v>
       </c>
       <c r="AC30" t="n">
-        <v>1758.105992999764</v>
+        <v>1848.775718273065</v>
       </c>
       <c r="AD30" t="n">
-        <v>1420507.11020112</v>
+        <v>1493766.054737761</v>
       </c>
       <c r="AE30" t="n">
-        <v>1943600.496527965</v>
+        <v>2043836.616399529</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>2.24283411032086e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.53743489583333</v>
       </c>
       <c r="AH30" t="n">
-        <v>1758105.992999764</v>
+        <v>1848775.718273065</v>
       </c>
     </row>
     <row r="31">
@@ -10201,28 +10201,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>1426.619535129123</v>
+        <v>1499.878479665763</v>
       </c>
       <c r="AB31" t="n">
-        <v>1951.963785975614</v>
+        <v>2052.199905847178</v>
       </c>
       <c r="AC31" t="n">
-        <v>1765.671101840481</v>
+        <v>1856.340827113781</v>
       </c>
       <c r="AD31" t="n">
-        <v>1426619.535129123</v>
+        <v>1499878.479665763</v>
       </c>
       <c r="AE31" t="n">
-        <v>1951963.785975614</v>
+        <v>2052199.905847178</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>2.242661358714119e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12.53743489583333</v>
       </c>
       <c r="AH31" t="n">
-        <v>1765671.10184048</v>
+        <v>1856340.827113781</v>
       </c>
     </row>
   </sheetData>
@@ -10498,28 +10498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3981.035527352499</v>
+        <v>4133.793103368679</v>
       </c>
       <c r="AB2" t="n">
-        <v>5447.02843941606</v>
+        <v>5656.038094110038</v>
       </c>
       <c r="AC2" t="n">
-        <v>4927.171690110416</v>
+        <v>5116.233756707284</v>
       </c>
       <c r="AD2" t="n">
-        <v>3981035.527352499</v>
+        <v>4133793.103368679</v>
       </c>
       <c r="AE2" t="n">
-        <v>5447028.43941606</v>
+        <v>5656038.094110038</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598745647411822e-07</v>
+        <v>1.257822760421062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.82161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4927171.690110416</v>
+        <v>5116233.756707284</v>
       </c>
     </row>
     <row r="3">
@@ -10604,28 +10604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2185.866344432664</v>
+        <v>2291.654412772551</v>
       </c>
       <c r="AB3" t="n">
-        <v>2990.798766069945</v>
+        <v>3135.542668212949</v>
       </c>
       <c r="AC3" t="n">
-        <v>2705.36112944866</v>
+        <v>2836.290876720361</v>
       </c>
       <c r="AD3" t="n">
-        <v>2185866.344432665</v>
+        <v>2291654.412772551</v>
       </c>
       <c r="AE3" t="n">
-        <v>2990798.766069945</v>
+        <v>3135542.668212949</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.497287170813881e-07</v>
+        <v>1.810329508668077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.552734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2705361.129448661</v>
+        <v>2836290.876720361</v>
       </c>
     </row>
     <row r="4">
@@ -10710,28 +10710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1831.248410484841</v>
+        <v>1925.272766692007</v>
       </c>
       <c r="AB4" t="n">
-        <v>2505.59486420343</v>
+        <v>2634.243136427915</v>
       </c>
       <c r="AC4" t="n">
-        <v>2266.464406988332</v>
+        <v>2382.834668670697</v>
       </c>
       <c r="AD4" t="n">
-        <v>1831248.410484841</v>
+        <v>1925272.766692007</v>
       </c>
       <c r="AE4" t="n">
-        <v>2505594.86420343</v>
+        <v>2634243.136427915</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>2.01597763855542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.86328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2266464.406988333</v>
+        <v>2382834.668670697</v>
       </c>
     </row>
     <row r="5">
@@ -10816,28 +10816,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1685.890754577101</v>
+        <v>1768.151488160101</v>
       </c>
       <c r="AB5" t="n">
-        <v>2306.710106663269</v>
+        <v>2419.262871438967</v>
       </c>
       <c r="AC5" t="n">
-        <v>2086.560931571294</v>
+        <v>2188.371818445597</v>
       </c>
       <c r="AD5" t="n">
-        <v>1685890.754577101</v>
+        <v>1768151.488160101</v>
       </c>
       <c r="AE5" t="n">
-        <v>2306710.106663269</v>
+        <v>2419262.871438967</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.114600772411189e-06</v>
+        <v>2.124601091226443e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.10319010416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2086560.931571294</v>
+        <v>2188371.818445597</v>
       </c>
     </row>
     <row r="6">
@@ -10922,28 +10922,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1592.507884196298</v>
+        <v>1674.853869125318</v>
       </c>
       <c r="AB6" t="n">
-        <v>2178.939543646772</v>
+        <v>2291.608953075119</v>
       </c>
       <c r="AC6" t="n">
-        <v>1970.98461176198</v>
+        <v>2072.901010886995</v>
       </c>
       <c r="AD6" t="n">
-        <v>1592507.884196298</v>
+        <v>1674853.869125318</v>
       </c>
       <c r="AE6" t="n">
-        <v>2178939.543646771</v>
+        <v>2291608.953075119</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.148792165256385e-06</v>
+        <v>2.189775162829056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1970984.61176198</v>
+        <v>2072901.010886995</v>
       </c>
     </row>
     <row r="7">
@@ -11028,28 +11028,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1536.431599836456</v>
+        <v>1618.606992564884</v>
       </c>
       <c r="AB7" t="n">
-        <v>2102.21349747457</v>
+        <v>2214.64949512807</v>
       </c>
       <c r="AC7" t="n">
-        <v>1901.58119175077</v>
+        <v>2003.286455593135</v>
       </c>
       <c r="AD7" t="n">
-        <v>1536431.599836456</v>
+        <v>1618606.992564884</v>
       </c>
       <c r="AE7" t="n">
-        <v>2102213.497474569</v>
+        <v>2214649.49512807</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.171779598864172e-06</v>
+        <v>2.233592758991266e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.41634114583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1901581.19175077</v>
+        <v>2003286.455593135</v>
       </c>
     </row>
     <row r="8">
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1494.517734919214</v>
+        <v>1576.693127647643</v>
       </c>
       <c r="AB8" t="n">
-        <v>2044.865098385583</v>
+        <v>2157.301096039084</v>
       </c>
       <c r="AC8" t="n">
-        <v>1849.706043381854</v>
+        <v>1951.411307224218</v>
       </c>
       <c r="AD8" t="n">
-        <v>1494517.734919214</v>
+        <v>1576693.127647643</v>
       </c>
       <c r="AE8" t="n">
-        <v>2044865.098385583</v>
+        <v>2157301.096039084</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.18887529528677e-06</v>
+        <v>2.266179794792572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1849706.043381853</v>
+        <v>1951411.307224218</v>
       </c>
     </row>
     <row r="9">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1458.82965480505</v>
+        <v>1529.412017109904</v>
       </c>
       <c r="AB9" t="n">
-        <v>1996.035092726407</v>
+        <v>2092.608994705968</v>
       </c>
       <c r="AC9" t="n">
-        <v>1805.536304929446</v>
+        <v>1892.8933292464</v>
       </c>
       <c r="AD9" t="n">
-        <v>1458829.65480505</v>
+        <v>1529412.017109904</v>
       </c>
       <c r="AE9" t="n">
-        <v>1996035.092726407</v>
+        <v>2092608.994705968</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.202590486767046e-06</v>
+        <v>2.292323066452378e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1805536.304929446</v>
+        <v>1892893.3292464</v>
       </c>
     </row>
     <row r="10">
@@ -11346,28 +11346,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1418.554446285814</v>
+        <v>1500.815090360264</v>
       </c>
       <c r="AB10" t="n">
-        <v>1940.928775613591</v>
+        <v>2053.481417919741</v>
       </c>
       <c r="AC10" t="n">
-        <v>1755.689257379675</v>
+        <v>1857.500033472752</v>
       </c>
       <c r="AD10" t="n">
-        <v>1418554.446285814</v>
+        <v>1500815.090360264</v>
       </c>
       <c r="AE10" t="n">
-        <v>1940928.775613591</v>
+        <v>2053481.417919741</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.212925173305001e-06</v>
+        <v>2.312022573970682e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.96061197916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1755689.257379675</v>
+        <v>1857500.033472752</v>
       </c>
     </row>
     <row r="11">
@@ -11452,28 +11452,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1394.052442378881</v>
+        <v>1476.31308645333</v>
       </c>
       <c r="AB11" t="n">
-        <v>1907.404052916002</v>
+        <v>2019.956695222152</v>
       </c>
       <c r="AC11" t="n">
-        <v>1725.3640871641</v>
+        <v>1827.174863257176</v>
       </c>
       <c r="AD11" t="n">
-        <v>1394052.442378881</v>
+        <v>1476313.08645333</v>
       </c>
       <c r="AE11" t="n">
-        <v>1907404.052916002</v>
+        <v>2019956.695222152</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.220555455889098e-06</v>
+        <v>2.326567070175785e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.87923177083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1725364.0871641</v>
+        <v>1827174.863257176</v>
       </c>
     </row>
     <row r="12">
@@ -11558,28 +11558,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1369.032246818469</v>
+        <v>1451.292890892918</v>
       </c>
       <c r="AB12" t="n">
-        <v>1873.170317537122</v>
+        <v>1985.722959843271</v>
       </c>
       <c r="AC12" t="n">
-        <v>1694.39757144243</v>
+        <v>1796.208347535507</v>
       </c>
       <c r="AD12" t="n">
-        <v>1369032.246818469</v>
+        <v>1451292.890892918</v>
       </c>
       <c r="AE12" t="n">
-        <v>1873170.317537122</v>
+        <v>1985722.959843271</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.227895980906711e-06</v>
+        <v>2.340559243740188e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.802734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1694397.57144243</v>
+        <v>1796208.347535507</v>
       </c>
     </row>
     <row r="13">
@@ -11664,28 +11664,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1350.196650556478</v>
+        <v>1432.457294630927</v>
       </c>
       <c r="AB13" t="n">
-        <v>1847.398623763605</v>
+        <v>1959.951266069755</v>
       </c>
       <c r="AC13" t="n">
-        <v>1671.085491951859</v>
+        <v>1772.896268044936</v>
       </c>
       <c r="AD13" t="n">
-        <v>1350196.650556478</v>
+        <v>1432457.294630927</v>
       </c>
       <c r="AE13" t="n">
-        <v>1847398.623763605</v>
+        <v>1959951.266069755</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.233497960525415e-06</v>
+        <v>2.35123748146039e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.744140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1671085.491951859</v>
+        <v>1772896.268044936</v>
       </c>
     </row>
     <row r="14">
@@ -11770,28 +11770,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1332.101118201234</v>
+        <v>1414.361762275683</v>
       </c>
       <c r="AB14" t="n">
-        <v>1822.639518076616</v>
+        <v>1935.192160382765</v>
       </c>
       <c r="AC14" t="n">
-        <v>1648.689360562013</v>
+        <v>1750.500136655089</v>
       </c>
       <c r="AD14" t="n">
-        <v>1332101.118201234</v>
+        <v>1414361.762275683</v>
       </c>
       <c r="AE14" t="n">
-        <v>1822639.518076616</v>
+        <v>1935192.160382765</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237457980600706e-06</v>
+        <v>2.358785890883291e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.70345052083333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1648689.360562013</v>
+        <v>1750500.136655089</v>
       </c>
     </row>
     <row r="15">
@@ -11876,28 +11876,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1310.848841293501</v>
+        <v>1393.109485367951</v>
       </c>
       <c r="AB15" t="n">
-        <v>1793.56121522717</v>
+        <v>1906.11385753332</v>
       </c>
       <c r="AC15" t="n">
-        <v>1622.386250124864</v>
+        <v>1724.197026217941</v>
       </c>
       <c r="AD15" t="n">
-        <v>1310848.841293501</v>
+        <v>1393109.485367951</v>
       </c>
       <c r="AE15" t="n">
-        <v>1793561.21522717</v>
+        <v>1906113.85753332</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.242094101664462e-06</v>
+        <v>2.367623053134493e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1622386.250124864</v>
+        <v>1724197.026217941</v>
       </c>
     </row>
     <row r="16">
@@ -11982,28 +11982,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1292.519415191629</v>
+        <v>1374.780059266079</v>
       </c>
       <c r="AB16" t="n">
-        <v>1768.48208579738</v>
+        <v>1881.03472810353</v>
       </c>
       <c r="AC16" t="n">
-        <v>1599.700637609074</v>
+        <v>1701.51141370215</v>
       </c>
       <c r="AD16" t="n">
-        <v>1292519.415191629</v>
+        <v>1374780.059266079</v>
       </c>
       <c r="AE16" t="n">
-        <v>1768482.08579738</v>
+        <v>1881034.72810353</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.245571192462278e-06</v>
+        <v>2.374250924822895e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.6220703125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1599700.637609074</v>
+        <v>1701511.41370215</v>
       </c>
     </row>
     <row r="17">
@@ -12088,28 +12088,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1270.569188490712</v>
+        <v>1352.829832565161</v>
       </c>
       <c r="AB17" t="n">
-        <v>1738.448817249527</v>
+        <v>1851.001459555677</v>
       </c>
       <c r="AC17" t="n">
-        <v>1572.533702059471</v>
+        <v>1674.344478152547</v>
       </c>
       <c r="AD17" t="n">
-        <v>1270569.188490712</v>
+        <v>1352829.832565161</v>
       </c>
       <c r="AE17" t="n">
-        <v>1738448.817249527</v>
+        <v>1851001.459555677</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.24914486911559e-06</v>
+        <v>2.381062904058196e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.58463541666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1572533.702059471</v>
+        <v>1674344.478152547</v>
       </c>
     </row>
     <row r="18">
@@ -12194,28 +12194,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1254.323631608116</v>
+        <v>1336.584275682565</v>
       </c>
       <c r="AB18" t="n">
-        <v>1716.220929619372</v>
+        <v>1828.773571925522</v>
       </c>
       <c r="AC18" t="n">
-        <v>1552.427212827701</v>
+        <v>1654.237988920778</v>
       </c>
       <c r="AD18" t="n">
-        <v>1254323.631608116</v>
+        <v>1336584.275682565</v>
       </c>
       <c r="AE18" t="n">
-        <v>1716220.929619372</v>
+        <v>1828773.571925522</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.252428788202416e-06</v>
+        <v>2.387322560652797e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1552427.212827701</v>
+        <v>1654237.988920778</v>
       </c>
     </row>
     <row r="19">
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1248.993585241436</v>
+        <v>1331.254229315886</v>
       </c>
       <c r="AB19" t="n">
-        <v>1708.928125035431</v>
+        <v>1821.480767341581</v>
       </c>
       <c r="AC19" t="n">
-        <v>1545.830423277736</v>
+        <v>1647.641199370813</v>
       </c>
       <c r="AD19" t="n">
-        <v>1248993.585241436</v>
+        <v>1331254.229315886</v>
       </c>
       <c r="AE19" t="n">
-        <v>1708928.125035431</v>
+        <v>1821480.767341581</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253298060901871e-06</v>
+        <v>2.388979528574898e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.54231770833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1545830.423277736</v>
+        <v>1647641.199370813</v>
       </c>
     </row>
     <row r="20">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1252.227689098181</v>
+        <v>1334.48833317263</v>
       </c>
       <c r="AB20" t="n">
-        <v>1713.353168610822</v>
+        <v>1825.905810916971</v>
       </c>
       <c r="AC20" t="n">
-        <v>1549.833146904879</v>
+        <v>1651.643922997956</v>
       </c>
       <c r="AD20" t="n">
-        <v>1252227.689098181</v>
+        <v>1334488.33317263</v>
       </c>
       <c r="AE20" t="n">
-        <v>1713353.168610822</v>
+        <v>1825905.810916971</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.253104889190881e-06</v>
+        <v>2.388611313481098e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1549833.146904879</v>
+        <v>1651643.922997956</v>
       </c>
     </row>
     <row r="21">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1256.504635828633</v>
+        <v>1338.765279903082</v>
       </c>
       <c r="AB21" t="n">
-        <v>1719.205075812999</v>
+        <v>1831.757718119149</v>
       </c>
       <c r="AC21" t="n">
-        <v>1555.126556296884</v>
+        <v>1656.937332389961</v>
       </c>
       <c r="AD21" t="n">
-        <v>1256504.635828633</v>
+        <v>1338765.279903082</v>
       </c>
       <c r="AE21" t="n">
-        <v>1719205.075812999</v>
+        <v>1831757.718119149</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.252911717479891e-06</v>
+        <v>2.388243098387297e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.54720052083333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1555126.556296884</v>
+        <v>1656937.332389961</v>
       </c>
     </row>
     <row r="22">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1261.963891290253</v>
+        <v>1344.224535364703</v>
       </c>
       <c r="AB22" t="n">
-        <v>1726.674669980941</v>
+        <v>1839.227312287091</v>
       </c>
       <c r="AC22" t="n">
-        <v>1561.883262881079</v>
+        <v>1663.694038974156</v>
       </c>
       <c r="AD22" t="n">
-        <v>1261963.891290253</v>
+        <v>1344224.535364703</v>
       </c>
       <c r="AE22" t="n">
-        <v>1726674.669980941</v>
+        <v>1839227.312287091</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.253008303335386e-06</v>
+        <v>2.388427205934197e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1561883.262881079</v>
+        <v>1663694.038974155</v>
       </c>
     </row>
   </sheetData>
@@ -12915,28 +12915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1574.286688268524</v>
+        <v>1668.372329834671</v>
       </c>
       <c r="AB2" t="n">
-        <v>2154.008499515961</v>
+        <v>2282.740625072322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1948.432951492073</v>
+        <v>2064.879063662009</v>
       </c>
       <c r="AD2" t="n">
-        <v>1574286.688268524</v>
+        <v>1668372.329834671</v>
       </c>
       <c r="AE2" t="n">
-        <v>2154008.499515961</v>
+        <v>2282740.625072322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046933580435833e-06</v>
+        <v>2.229694540738339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75455729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1948432.951492073</v>
+        <v>2064879.063662009</v>
       </c>
     </row>
     <row r="3">
@@ -13021,28 +13021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1155.08393347149</v>
+        <v>1228.242779563805</v>
       </c>
       <c r="AB3" t="n">
-        <v>1580.436796482353</v>
+        <v>1680.53595724636</v>
       </c>
       <c r="AC3" t="n">
-        <v>1429.602126783052</v>
+        <v>1520.147964133797</v>
       </c>
       <c r="AD3" t="n">
-        <v>1155083.93347149</v>
+        <v>1228242.779563806</v>
       </c>
       <c r="AE3" t="n">
-        <v>1580436.796482353</v>
+        <v>1680535.95724636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248258670847006e-06</v>
+        <v>2.658464295947235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.052734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1429602.126783052</v>
+        <v>1520147.964133797</v>
       </c>
     </row>
     <row r="4">
@@ -13127,28 +13127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1025.495577623033</v>
+        <v>1098.569082860777</v>
       </c>
       <c r="AB4" t="n">
-        <v>1403.128290975722</v>
+        <v>1503.110684617531</v>
       </c>
       <c r="AC4" t="n">
-        <v>1269.215696187923</v>
+        <v>1359.65591050673</v>
       </c>
       <c r="AD4" t="n">
-        <v>1025495.577623033</v>
+        <v>1098569.082860777</v>
       </c>
       <c r="AE4" t="n">
-        <v>1403128.290975722</v>
+        <v>1503110.684617531</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319390662105771e-06</v>
+        <v>2.809956821877573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2958984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1269215.696187923</v>
+        <v>1359655.91050673</v>
       </c>
     </row>
     <row r="5">
@@ -13233,28 +13233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>947.9880861173627</v>
+        <v>1021.146842701127</v>
       </c>
       <c r="AB5" t="n">
-        <v>1297.079121708467</v>
+        <v>1397.178160002926</v>
       </c>
       <c r="AC5" t="n">
-        <v>1173.287710794591</v>
+        <v>1263.83343736411</v>
       </c>
       <c r="AD5" t="n">
-        <v>947988.0861173627</v>
+        <v>1021146.842701127</v>
       </c>
       <c r="AE5" t="n">
-        <v>1297079.121708467</v>
+        <v>1397178.160002926</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354741106246491e-06</v>
+        <v>2.885244016582347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.94759114583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1173287.710794591</v>
+        <v>1263833.43736411</v>
       </c>
     </row>
     <row r="6">
@@ -13339,28 +13339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>899.0020531089816</v>
+        <v>972.1608096927462</v>
       </c>
       <c r="AB6" t="n">
-        <v>1230.054270235147</v>
+        <v>1330.153308529606</v>
       </c>
       <c r="AC6" t="n">
-        <v>1112.659617075915</v>
+        <v>1203.205343645434</v>
       </c>
       <c r="AD6" t="n">
-        <v>899002.0531089816</v>
+        <v>972160.8096927461</v>
       </c>
       <c r="AE6" t="n">
-        <v>1230054.270235147</v>
+        <v>1330153.308529606</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.375434049158132e-06</v>
+        <v>2.929314569580264e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.75390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1112659.617075915</v>
+        <v>1203205.343645434</v>
       </c>
     </row>
     <row r="7">
@@ -13445,28 +13445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>897.8787115271213</v>
+        <v>971.0374681108857</v>
       </c>
       <c r="AB7" t="n">
-        <v>1228.517264724513</v>
+        <v>1328.616303018972</v>
       </c>
       <c r="AC7" t="n">
-        <v>1111.269301214015</v>
+        <v>1201.815027783534</v>
       </c>
       <c r="AD7" t="n">
-        <v>897878.7115271213</v>
+        <v>971037.4681108857</v>
       </c>
       <c r="AE7" t="n">
-        <v>1228517.264724513</v>
+        <v>1328616.303018972</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377589564044761e-06</v>
+        <v>2.933905252184213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1111269.301214015</v>
+        <v>1201815.027783534</v>
       </c>
     </row>
     <row r="8">
@@ -13551,28 +13551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>904.5389352102537</v>
+        <v>977.6976917940183</v>
       </c>
       <c r="AB8" t="n">
-        <v>1237.630076596106</v>
+        <v>1337.729114890565</v>
       </c>
       <c r="AC8" t="n">
-        <v>1119.512399110495</v>
+        <v>1210.058125680014</v>
       </c>
       <c r="AD8" t="n">
-        <v>904538.9352102537</v>
+        <v>977697.6917940183</v>
       </c>
       <c r="AE8" t="n">
-        <v>1237630.076596106</v>
+        <v>1337729.114890565</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37748178830043e-06</v>
+        <v>2.933675718054016e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1119512.399110495</v>
+        <v>1210058.125680014</v>
       </c>
     </row>
   </sheetData>
@@ -13848,28 +13848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2225.536745751277</v>
+        <v>2335.169365358709</v>
       </c>
       <c r="AB2" t="n">
-        <v>3045.077559288832</v>
+        <v>3195.081746085553</v>
       </c>
       <c r="AC2" t="n">
-        <v>2754.459630823387</v>
+        <v>2890.147628564422</v>
       </c>
       <c r="AD2" t="n">
-        <v>2225536.745751277</v>
+        <v>2335169.365358709</v>
       </c>
       <c r="AE2" t="n">
-        <v>3045077.559288832</v>
+        <v>3195081.746085553</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.921730563757235e-07</v>
+        <v>1.811419756916518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.81022135416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2754459.630823387</v>
+        <v>2890147.628564422</v>
       </c>
     </row>
     <row r="3">
@@ -13954,28 +13954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.283147946611</v>
+        <v>1570.972175461642</v>
       </c>
       <c r="AB3" t="n">
-        <v>2029.49344085467</v>
+        <v>2149.4734368676</v>
       </c>
       <c r="AC3" t="n">
-        <v>1835.801435271434</v>
+        <v>1944.330708857871</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483283.147946611</v>
+        <v>1570972.175461642</v>
       </c>
       <c r="AE3" t="n">
-        <v>2029493.44085467</v>
+        <v>2149473.436867599</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.131171917427258e-06</v>
+        <v>2.296670074324641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.83561197916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1835801.435271434</v>
+        <v>1944330.708857871</v>
       </c>
     </row>
     <row r="4">
@@ -14060,28 +14060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1303.169725726971</v>
+        <v>1379.972298050373</v>
       </c>
       <c r="AB4" t="n">
-        <v>1783.054310530374</v>
+        <v>1888.138978273611</v>
       </c>
       <c r="AC4" t="n">
-        <v>1612.882109665797</v>
+        <v>1707.937644206876</v>
       </c>
       <c r="AD4" t="n">
-        <v>1303169.725726971</v>
+        <v>1379972.298050373</v>
       </c>
       <c r="AE4" t="n">
-        <v>1783054.310530374</v>
+        <v>1888138.978273611</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.215306115278014e-06</v>
+        <v>2.467491583817751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1612882.109665797</v>
+        <v>1707937.644206876</v>
       </c>
     </row>
     <row r="5">
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1218.132528380404</v>
+        <v>1294.764508503215</v>
       </c>
       <c r="AB5" t="n">
-        <v>1666.702665544427</v>
+        <v>1771.553921512817</v>
       </c>
       <c r="AC5" t="n">
-        <v>1507.63490237675</v>
+        <v>1602.479301635178</v>
       </c>
       <c r="AD5" t="n">
-        <v>1218132.528380404</v>
+        <v>1294764.508503214</v>
       </c>
       <c r="AE5" t="n">
-        <v>1666702.665544427</v>
+        <v>1771553.921512817</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258404270549602e-06</v>
+        <v>2.554995739415937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.3349609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1507634.90237675</v>
+        <v>1602479.301635178</v>
       </c>
     </row>
     <row r="6">
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1161.354891916177</v>
+        <v>1227.18575770193</v>
       </c>
       <c r="AB6" t="n">
-        <v>1589.016998481535</v>
+        <v>1679.089693302429</v>
       </c>
       <c r="AC6" t="n">
-        <v>1437.363446345821</v>
+        <v>1518.83972959083</v>
       </c>
       <c r="AD6" t="n">
-        <v>1161354.891916177</v>
+        <v>1227185.75770193</v>
       </c>
       <c r="AE6" t="n">
-        <v>1589016.998481535</v>
+        <v>1679089.693302429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285624158089552e-06</v>
+        <v>2.610261521899002e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1437363.446345821</v>
+        <v>1518839.72959083</v>
       </c>
     </row>
     <row r="7">
@@ -14378,28 +14378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1107.252110186505</v>
+        <v>1183.969341655336</v>
       </c>
       <c r="AB7" t="n">
-        <v>1514.991185672723</v>
+        <v>1619.959086293762</v>
       </c>
       <c r="AC7" t="n">
-        <v>1370.402553215601</v>
+        <v>1465.352464724742</v>
       </c>
       <c r="AD7" t="n">
-        <v>1107252.110186505</v>
+        <v>1183969.341655336</v>
       </c>
       <c r="AE7" t="n">
-        <v>1514991.185672723</v>
+        <v>1619959.086293762</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.302842799071264e-06</v>
+        <v>2.645221316121244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.880859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1370402.553215601</v>
+        <v>1465352.464724742</v>
       </c>
     </row>
     <row r="8">
@@ -14484,28 +14484,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1070.229457321748</v>
+        <v>1146.946688790579</v>
       </c>
       <c r="AB8" t="n">
-        <v>1464.335158698992</v>
+        <v>1569.303059320031</v>
       </c>
       <c r="AC8" t="n">
-        <v>1324.581066360063</v>
+        <v>1419.530977869204</v>
       </c>
       <c r="AD8" t="n">
-        <v>1070229.457321748</v>
+        <v>1146946.688790579</v>
       </c>
       <c r="AE8" t="n">
-        <v>1464335.158698992</v>
+        <v>1569303.059320031</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315112369591165e-06</v>
+        <v>2.670132786255656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1324581.066360063</v>
+        <v>1419530.977869204</v>
       </c>
     </row>
     <row r="9">
@@ -14590,28 +14590,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.908605161108</v>
+        <v>1113.625836629939</v>
       </c>
       <c r="AB9" t="n">
-        <v>1418.744098760556</v>
+        <v>1523.711999381594</v>
       </c>
       <c r="AC9" t="n">
-        <v>1283.341153194696</v>
+        <v>1378.291064703837</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036908.605161108</v>
+        <v>1113625.836629939</v>
       </c>
       <c r="AE9" t="n">
-        <v>1418744.098760555</v>
+        <v>1523711.999381594</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938461226373e-06</v>
+        <v>2.692113495197784e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1283341.153194696</v>
+        <v>1378291.064703837</v>
       </c>
     </row>
     <row r="10">
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1024.0751392609</v>
+        <v>1100.792370729731</v>
       </c>
       <c r="AB10" t="n">
-        <v>1401.184784543334</v>
+        <v>1506.152685164373</v>
       </c>
       <c r="AC10" t="n">
-        <v>1267.457675281714</v>
+        <v>1362.407586790855</v>
       </c>
       <c r="AD10" t="n">
-        <v>1024075.1392609</v>
+        <v>1100792.370729731</v>
       </c>
       <c r="AE10" t="n">
-        <v>1401184.784543334</v>
+        <v>1506152.685164373</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.328619207726519e-06</v>
+        <v>2.697556337412025e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1267457.675281714</v>
+        <v>1362407.586790855</v>
       </c>
     </row>
     <row r="11">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1027.128058473781</v>
+        <v>1103.845289942612</v>
       </c>
       <c r="AB11" t="n">
-        <v>1405.361923295688</v>
+        <v>1510.329823916727</v>
       </c>
       <c r="AC11" t="n">
-        <v>1271.236153774194</v>
+        <v>1366.186065283335</v>
       </c>
       <c r="AD11" t="n">
-        <v>1027128.058473781</v>
+        <v>1103845.289942612</v>
       </c>
       <c r="AE11" t="n">
-        <v>1405361.923295688</v>
+        <v>1510329.823916727</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.700905778774635e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.61555989583333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1271236.153774194</v>
+        <v>1366186.065283335</v>
       </c>
     </row>
     <row r="12">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1033.233495635208</v>
+        <v>1109.950727104038</v>
       </c>
       <c r="AB12" t="n">
-        <v>1413.715651772829</v>
+        <v>1518.683552393868</v>
       </c>
       <c r="AC12" t="n">
-        <v>1278.792614130009</v>
+        <v>1373.74252563915</v>
       </c>
       <c r="AD12" t="n">
-        <v>1033233.495635208</v>
+        <v>1109950.727104038</v>
       </c>
       <c r="AE12" t="n">
-        <v>1413715.651772829</v>
+        <v>1518683.552393868</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.700905778774635e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.61555989583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1278792.614130009</v>
+        <v>1373742.52563915</v>
       </c>
     </row>
   </sheetData>
@@ -15205,28 +15205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1180.672820637021</v>
+        <v>1260.874134812376</v>
       </c>
       <c r="AB2" t="n">
-        <v>1615.44864080426</v>
+        <v>1725.183617091247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1461.272489822308</v>
+        <v>1560.534513986471</v>
       </c>
       <c r="AD2" t="n">
-        <v>1180672.820637021</v>
+        <v>1260874.134812376</v>
       </c>
       <c r="AE2" t="n">
-        <v>1615448.64080426</v>
+        <v>1725183.617091247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177995299861581e-06</v>
+        <v>2.623165441989373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46549479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1461272.489822308</v>
+        <v>1560534.513986471</v>
       </c>
     </row>
     <row r="3">
@@ -15311,28 +15311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>905.0866136415701</v>
+        <v>975.4120317205245</v>
       </c>
       <c r="AB3" t="n">
-        <v>1238.379434387701</v>
+        <v>1334.601773941806</v>
       </c>
       <c r="AC3" t="n">
-        <v>1120.19023924619</v>
+        <v>1207.229253762153</v>
       </c>
       <c r="AD3" t="n">
-        <v>905086.6136415701</v>
+        <v>975412.0317205245</v>
       </c>
       <c r="AE3" t="n">
-        <v>1238379.434387701</v>
+        <v>1334601.773941806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.349366527920122e-06</v>
+        <v>3.00477569395495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5009765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1120190.23924619</v>
+        <v>1207229.253762153</v>
       </c>
     </row>
     <row r="4">
@@ -15417,28 +15417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.3042147471787</v>
+        <v>872.5442919715615</v>
       </c>
       <c r="AB4" t="n">
-        <v>1097.74802178098</v>
+        <v>1193.853594212887</v>
       </c>
       <c r="AC4" t="n">
-        <v>992.9804912812277</v>
+        <v>1079.913882765251</v>
       </c>
       <c r="AD4" t="n">
-        <v>802304.2147471787</v>
+        <v>872544.2919715615</v>
       </c>
       <c r="AE4" t="n">
-        <v>1097748.02178098</v>
+        <v>1193853.594212887</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406229090855287e-06</v>
+        <v>3.131397514985984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>992980.4912812277</v>
+        <v>1079913.882765251</v>
       </c>
     </row>
     <row r="5">
@@ -15523,28 +15523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>798.2999659927167</v>
+        <v>868.5400432170995</v>
       </c>
       <c r="AB5" t="n">
-        <v>1092.269231980137</v>
+        <v>1188.374804412045</v>
       </c>
       <c r="AC5" t="n">
-        <v>988.0245894894479</v>
+        <v>1074.957980973472</v>
       </c>
       <c r="AD5" t="n">
-        <v>798299.9659927167</v>
+        <v>868540.0432170995</v>
       </c>
       <c r="AE5" t="n">
-        <v>1092269.231980138</v>
+        <v>1188374.804412045</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>3.143112525986887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.90690104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>988024.5894894479</v>
+        <v>1074957.980973472</v>
       </c>
     </row>
     <row r="6">
@@ -15629,28 +15629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>805.4669365149471</v>
+        <v>875.7070137393298</v>
       </c>
       <c r="AB6" t="n">
-        <v>1102.075397233077</v>
+        <v>1198.180969664985</v>
       </c>
       <c r="AC6" t="n">
-        <v>996.8948680936865</v>
+        <v>1083.828259577711</v>
       </c>
       <c r="AD6" t="n">
-        <v>805466.9365149471</v>
+        <v>875707.0137393298</v>
       </c>
       <c r="AE6" t="n">
-        <v>1102075.397233077</v>
+        <v>1198180.969664985</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>3.143112525986887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.90690104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>996894.8680936864</v>
+        <v>1083828.259577711</v>
       </c>
     </row>
   </sheetData>
@@ -15926,28 +15926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4362.342511381017</v>
+        <v>4516.66116478514</v>
       </c>
       <c r="AB2" t="n">
-        <v>5968.749477040803</v>
+        <v>6179.895066686833</v>
       </c>
       <c r="AC2" t="n">
-        <v>5399.100404144308</v>
+        <v>5590.094555059211</v>
       </c>
       <c r="AD2" t="n">
-        <v>4362342.511381017</v>
+        <v>4516661.164785139</v>
       </c>
       <c r="AE2" t="n">
-        <v>5968749.477040803</v>
+        <v>6179895.066686833</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277201633901482e-07</v>
+        <v>1.186870479000078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.8193359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5399100.404144308</v>
+        <v>5590094.55505921</v>
       </c>
     </row>
     <row r="3">
@@ -16032,28 +16032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2309.572427204508</v>
+        <v>2416.382159298264</v>
       </c>
       <c r="AB3" t="n">
-        <v>3160.058886045761</v>
+        <v>3306.200673609261</v>
       </c>
       <c r="AC3" t="n">
-        <v>2858.467301131936</v>
+        <v>2990.661521601657</v>
       </c>
       <c r="AD3" t="n">
-        <v>2309572.427204508</v>
+        <v>2416382.159298263</v>
       </c>
       <c r="AE3" t="n">
-        <v>3160058.88604576</v>
+        <v>3306200.673609261</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.235852175284446e-07</v>
+        <v>1.746281374179895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86848958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2858467.301131936</v>
+        <v>2990661.521601657</v>
       </c>
     </row>
     <row r="4">
@@ -16138,28 +16138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1935.243831838367</v>
+        <v>2018.384533640062</v>
       </c>
       <c r="AB4" t="n">
-        <v>2647.885987653513</v>
+        <v>2761.642763767486</v>
       </c>
       <c r="AC4" t="n">
-        <v>2395.175465323186</v>
+        <v>2498.07545438348</v>
       </c>
       <c r="AD4" t="n">
-        <v>1935243.831838368</v>
+        <v>2018384.533640062</v>
       </c>
       <c r="AE4" t="n">
-        <v>2647885.987653513</v>
+        <v>2761642.763767486</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03385262042955e-06</v>
+        <v>1.954770973418701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.068359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2395175.465323186</v>
+        <v>2498075.454383479</v>
       </c>
     </row>
     <row r="5">
@@ -16244,28 +16244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1764.613597636866</v>
+        <v>1847.668958583988</v>
       </c>
       <c r="AB5" t="n">
-        <v>2414.422173544362</v>
+        <v>2528.062182536138</v>
       </c>
       <c r="AC5" t="n">
-        <v>2183.993109964091</v>
+        <v>2286.787475992446</v>
       </c>
       <c r="AD5" t="n">
-        <v>1764613.597636865</v>
+        <v>1847668.958583988</v>
       </c>
       <c r="AE5" t="n">
-        <v>2414422.173544362</v>
+        <v>2528062.182536138</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.092815051147503e-06</v>
+        <v>2.066254995233895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.25618489583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2183993.109964091</v>
+        <v>2286787.475992446</v>
       </c>
     </row>
     <row r="6">
@@ -16350,28 +16350,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1659.069519681139</v>
+        <v>1742.210131974282</v>
       </c>
       <c r="AB6" t="n">
-        <v>2270.012109809242</v>
+        <v>2383.768763453666</v>
       </c>
       <c r="AC6" t="n">
-        <v>2053.365340031054</v>
+        <v>2156.26521831012</v>
       </c>
       <c r="AD6" t="n">
-        <v>1659069.519681139</v>
+        <v>1742210.131974282</v>
       </c>
       <c r="AE6" t="n">
-        <v>2270012.109809242</v>
+        <v>2383768.763453667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.130145161504648e-06</v>
+        <v>2.136837411642867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.78580729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2053365.340031053</v>
+        <v>2156265.21831012</v>
       </c>
     </row>
     <row r="7">
@@ -16456,28 +16456,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1600.10889521001</v>
+        <v>1683.078915302561</v>
       </c>
       <c r="AB7" t="n">
-        <v>2189.339582248672</v>
+        <v>2302.862824118249</v>
       </c>
       <c r="AC7" t="n">
-        <v>1980.39208527626</v>
+        <v>2083.080828272676</v>
       </c>
       <c r="AD7" t="n">
-        <v>1600108.89521001</v>
+        <v>1683078.915302561</v>
       </c>
       <c r="AE7" t="n">
-        <v>2189339.582248672</v>
+        <v>2302862.824118249</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.154266155889265e-06</v>
+        <v>2.182444511476355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.49772135416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1980392.08527626</v>
+        <v>2083080.828272676</v>
       </c>
     </row>
     <row r="8">
@@ -16562,28 +16562,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1556.47336963498</v>
+        <v>1639.44338972753</v>
       </c>
       <c r="AB8" t="n">
-        <v>2129.63553109339</v>
+        <v>2243.158772962968</v>
       </c>
       <c r="AC8" t="n">
-        <v>1926.386104968077</v>
+        <v>2029.074847964493</v>
       </c>
       <c r="AD8" t="n">
-        <v>1556473.36963498</v>
+        <v>1639443.38972753</v>
       </c>
       <c r="AE8" t="n">
-        <v>2129635.531093391</v>
+        <v>2243158.772962968</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.171495437592562e-06</v>
+        <v>2.215021011357418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.29752604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1926386.104968077</v>
+        <v>2029074.847964493</v>
       </c>
     </row>
     <row r="9">
@@ -16668,28 +16668,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1522.141089493603</v>
+        <v>1593.404560967706</v>
       </c>
       <c r="AB9" t="n">
-        <v>2082.660590770658</v>
+        <v>2180.166416363999</v>
       </c>
       <c r="AC9" t="n">
-        <v>1883.894387020003</v>
+        <v>1972.094393469002</v>
       </c>
       <c r="AD9" t="n">
-        <v>1522141.089493603</v>
+        <v>1593404.560967706</v>
       </c>
       <c r="AE9" t="n">
-        <v>2082660.590770658</v>
+        <v>2180166.416363999</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184704553565091e-06</v>
+        <v>2.239996327932901e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.1494140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1883894.387020003</v>
+        <v>1972094.393469002</v>
       </c>
     </row>
     <row r="10">
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1492.610662246838</v>
+        <v>1563.87413372094</v>
       </c>
       <c r="AB10" t="n">
-        <v>2042.255757421129</v>
+        <v>2139.76158301447</v>
       </c>
       <c r="AC10" t="n">
-        <v>1847.345734256814</v>
+        <v>1935.545740705812</v>
       </c>
       <c r="AD10" t="n">
-        <v>1492610.662246838</v>
+        <v>1563874.13372094</v>
       </c>
       <c r="AE10" t="n">
-        <v>2042255.757421129</v>
+        <v>2139761.58301447</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.195616431977179e-06</v>
+        <v>2.260628111190908e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.03059895833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1847345.734256814</v>
+        <v>1935545.740705812</v>
       </c>
     </row>
     <row r="11">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1455.306994360492</v>
+        <v>1538.362265799063</v>
       </c>
       <c r="AB11" t="n">
-        <v>1991.215233297353</v>
+        <v>2104.85511981958</v>
       </c>
       <c r="AC11" t="n">
-        <v>1801.176446119585</v>
+        <v>1903.970701366713</v>
       </c>
       <c r="AD11" t="n">
-        <v>1455306.994360492</v>
+        <v>1538362.265799063</v>
       </c>
       <c r="AE11" t="n">
-        <v>1991215.233297353</v>
+        <v>2104855.11981958</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.203656763438718e-06</v>
+        <v>2.275830477802071e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1801176.446119585</v>
+        <v>1903970.701366713</v>
       </c>
     </row>
     <row r="12">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1431.024977327391</v>
+        <v>1514.080248765963</v>
       </c>
       <c r="AB12" t="n">
-        <v>1957.991506345678</v>
+        <v>2071.631392867905</v>
       </c>
       <c r="AC12" t="n">
-        <v>1771.123545038384</v>
+        <v>1873.917800285512</v>
       </c>
       <c r="AD12" t="n">
-        <v>1431024.977327391</v>
+        <v>1514080.248765963</v>
       </c>
       <c r="AE12" t="n">
-        <v>1957991.506345678</v>
+        <v>2071631.392867905</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.211218503741832e-06</v>
+        <v>2.290127941638759e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.86295572916667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1771123.545038384</v>
+        <v>1873917.800285512</v>
       </c>
     </row>
     <row r="13">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1412.117993336527</v>
+        <v>1495.173264775098</v>
       </c>
       <c r="AB13" t="n">
-        <v>1932.122136732113</v>
+        <v>2045.76202325434</v>
       </c>
       <c r="AC13" t="n">
-        <v>1747.72311175285</v>
+        <v>1850.517366999978</v>
       </c>
       <c r="AD13" t="n">
-        <v>1412117.993336527</v>
+        <v>1495173.264775099</v>
       </c>
       <c r="AE13" t="n">
-        <v>1932122.136732113</v>
+        <v>2045762.02325434</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.216770161179561e-06</v>
+        <v>2.300624813822658e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.802734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1747723.11175285</v>
+        <v>1850517.366999978</v>
       </c>
     </row>
     <row r="14">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1390.898616574452</v>
+        <v>1473.953888013023</v>
       </c>
       <c r="AB14" t="n">
-        <v>1903.088849313408</v>
+        <v>2016.728735835634</v>
       </c>
       <c r="AC14" t="n">
-        <v>1721.460720536911</v>
+        <v>1824.254975784039</v>
       </c>
       <c r="AD14" t="n">
-        <v>1390898.616574452</v>
+        <v>1473953.888013023</v>
       </c>
       <c r="AE14" t="n">
-        <v>1903088.849313408</v>
+        <v>2016728.735835634</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222704691544031e-06</v>
+        <v>2.311845608226135e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.74251302083333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1721460.720536911</v>
+        <v>1824254.975784039</v>
       </c>
     </row>
     <row r="15">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1371.147311334895</v>
+        <v>1454.202582773466</v>
       </c>
       <c r="AB15" t="n">
-        <v>1876.064242118556</v>
+        <v>1989.704128640783</v>
       </c>
       <c r="AC15" t="n">
-        <v>1697.015303923461</v>
+        <v>1799.80955917059</v>
       </c>
       <c r="AD15" t="n">
-        <v>1371147.311334895</v>
+        <v>1454202.582773466</v>
       </c>
       <c r="AE15" t="n">
-        <v>1876064.242118556</v>
+        <v>1989704.128640783</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22729916666491e-06</v>
+        <v>2.320532674861085e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.69368489583333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1697015.303923461</v>
+        <v>1799809.55917059</v>
       </c>
     </row>
     <row r="16">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1353.560344037649</v>
+        <v>1436.615615476221</v>
       </c>
       <c r="AB16" t="n">
-        <v>1852.000977580227</v>
+        <v>1965.640864102454</v>
       </c>
       <c r="AC16" t="n">
-        <v>1675.248603579667</v>
+        <v>1778.042858826795</v>
       </c>
       <c r="AD16" t="n">
-        <v>1353560.344037649</v>
+        <v>1436615.615476221</v>
       </c>
       <c r="AE16" t="n">
-        <v>1852000.977580227</v>
+        <v>1965640.864102454</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2305535865422e-06</v>
+        <v>2.326686013727508e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.65950520833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1675248.603579667</v>
+        <v>1778042.858826795</v>
       </c>
     </row>
     <row r="17">
@@ -17516,28 +17516,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1337.612983232438</v>
+        <v>1420.668254671009</v>
       </c>
       <c r="AB17" t="n">
-        <v>1830.181094978632</v>
+        <v>1943.820981500859</v>
       </c>
       <c r="AC17" t="n">
-        <v>1655.51117994917</v>
+        <v>1758.305435196299</v>
       </c>
       <c r="AD17" t="n">
-        <v>1337612.983232438</v>
+        <v>1420668.254671009</v>
       </c>
       <c r="AE17" t="n">
-        <v>1830181.094978632</v>
+        <v>1943820.981500859</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.233808006419489e-06</v>
+        <v>2.332839352593931e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.626953125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1655511.17994917</v>
+        <v>1758305.435196299</v>
       </c>
     </row>
     <row r="18">
@@ -17622,28 +17622,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1319.164106500981</v>
+        <v>1402.219377939552</v>
       </c>
       <c r="AB18" t="n">
-        <v>1804.938527927654</v>
+        <v>1918.578414449881</v>
       </c>
       <c r="AC18" t="n">
-        <v>1632.677728069372</v>
+        <v>1735.4719833165</v>
       </c>
       <c r="AD18" t="n">
-        <v>1319164.106500981</v>
+        <v>1402219.377939552</v>
       </c>
       <c r="AE18" t="n">
-        <v>1804938.527927654</v>
+        <v>1918578.414449881</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.237541017455204e-06</v>
+        <v>2.339897594234828e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.587890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1632677.728069372</v>
+        <v>1735471.9833165</v>
       </c>
     </row>
     <row r="19">
@@ -17728,28 +17728,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1305.459209139749</v>
+        <v>1388.51448057832</v>
       </c>
       <c r="AB19" t="n">
-        <v>1786.186882740616</v>
+        <v>1899.826769262843</v>
       </c>
       <c r="AC19" t="n">
-        <v>1615.715713580886</v>
+        <v>1718.509968828014</v>
       </c>
       <c r="AD19" t="n">
-        <v>1305459.209139749</v>
+        <v>1388514.48057832</v>
       </c>
       <c r="AE19" t="n">
-        <v>1786186.882740616</v>
+        <v>1899826.769262843</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239072509162163e-06</v>
+        <v>2.342793283113145e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.5732421875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1615715.713580886</v>
+        <v>1718509.968828014</v>
       </c>
     </row>
     <row r="20">
@@ -17834,28 +17834,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1291.00866280133</v>
+        <v>1374.063934239901</v>
       </c>
       <c r="AB20" t="n">
-        <v>1766.41500772728</v>
+        <v>1880.054894249507</v>
       </c>
       <c r="AC20" t="n">
-        <v>1597.830838568822</v>
+        <v>1700.62509381595</v>
       </c>
       <c r="AD20" t="n">
-        <v>1291008.66280133</v>
+        <v>1374063.934239901</v>
       </c>
       <c r="AE20" t="n">
-        <v>1766415.00772728</v>
+        <v>1880054.894249507</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.241944056112713e-06</v>
+        <v>2.348222699759989e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.5439453125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1597830.838568822</v>
+        <v>1700625.09381595</v>
       </c>
     </row>
     <row r="21">
@@ -17940,28 +17940,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1288.621426151089</v>
+        <v>1359.970148971212</v>
       </c>
       <c r="AB21" t="n">
-        <v>1763.148685224973</v>
+        <v>1860.771155470964</v>
       </c>
       <c r="AC21" t="n">
-        <v>1594.876249301823</v>
+        <v>1683.181768001533</v>
       </c>
       <c r="AD21" t="n">
-        <v>1288621.426151089</v>
+        <v>1359970.148971212</v>
       </c>
       <c r="AE21" t="n">
-        <v>1763148.685224973</v>
+        <v>1860771.155470964</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>2.349489563644252e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.53743489583333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1594876.249301823</v>
+        <v>1683181.768001533</v>
       </c>
     </row>
     <row r="22">
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1291.178501120927</v>
+        <v>1362.527223941051</v>
       </c>
       <c r="AB22" t="n">
-        <v>1766.647388008892</v>
+        <v>1864.269858254883</v>
       </c>
       <c r="AC22" t="n">
-        <v>1598.041040802505</v>
+        <v>1686.346559502215</v>
       </c>
       <c r="AD22" t="n">
-        <v>1291178.501120928</v>
+        <v>1362527.22394105</v>
       </c>
       <c r="AE22" t="n">
-        <v>1766647.388008892</v>
+        <v>1864269.858254883</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>2.349489563644252e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.53743489583333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1598041.040802505</v>
+        <v>1686346.559502215</v>
       </c>
     </row>
     <row r="23">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1297.416197229421</v>
+        <v>1368.764920049544</v>
       </c>
       <c r="AB23" t="n">
-        <v>1775.182079012264</v>
+        <v>1872.804549258254</v>
       </c>
       <c r="AC23" t="n">
-        <v>1605.761192875029</v>
+        <v>1694.066711574739</v>
       </c>
       <c r="AD23" t="n">
-        <v>1297416.197229421</v>
+        <v>1368764.920049544</v>
       </c>
       <c r="AE23" t="n">
-        <v>1775182.079012264</v>
+        <v>1872804.549258254</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.242422647271138e-06</v>
+        <v>2.349127602534463e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH23" t="n">
-        <v>1605761.192875029</v>
+        <v>1694066.711574739</v>
       </c>
     </row>
   </sheetData>
@@ -18449,28 +18449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>976.3835168016661</v>
+        <v>1054.694887825485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1335.93100268872</v>
+        <v>1443.080075377367</v>
       </c>
       <c r="AC2" t="n">
-        <v>1208.431622783046</v>
+        <v>1305.354538358957</v>
       </c>
       <c r="AD2" t="n">
-        <v>976383.5168016661</v>
+        <v>1054694.887825485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1335931.00268872</v>
+        <v>1443080.075377367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259836323781887e-06</v>
+        <v>2.888258864057136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.7998046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1208431.622783046</v>
+        <v>1305354.538358957</v>
       </c>
     </row>
     <row r="3">
@@ -18555,28 +18555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.7104636871497</v>
+        <v>835.1369943801488</v>
       </c>
       <c r="AB3" t="n">
-        <v>1049.047081295177</v>
+        <v>1142.671279354818</v>
       </c>
       <c r="AC3" t="n">
-        <v>948.92750020319</v>
+        <v>1033.616336202407</v>
       </c>
       <c r="AD3" t="n">
-        <v>766710.4636871497</v>
+        <v>835136.9943801488</v>
       </c>
       <c r="AE3" t="n">
-        <v>1049047.081295177</v>
+        <v>1142671.279354818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.411502380581961e-06</v>
+        <v>3.235963422705222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>948927.50020319</v>
+        <v>1033616.336202407</v>
       </c>
     </row>
     <row r="4">
@@ -18661,28 +18661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>748.9772700719373</v>
+        <v>807.7748934892809</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.783743457555</v>
+        <v>1105.233245785236</v>
       </c>
       <c r="AC4" t="n">
-        <v>926.9798212749824</v>
+        <v>999.7513360120957</v>
       </c>
       <c r="AD4" t="n">
-        <v>748977.2700719372</v>
+        <v>807774.8934892808</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024783.743457555</v>
+        <v>1105233.245785236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42708137131067e-06</v>
+        <v>3.271679298820131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.06477864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>926979.8212749824</v>
+        <v>999751.3360120958</v>
       </c>
     </row>
   </sheetData>
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3011.891879373442</v>
+        <v>3137.069484506077</v>
       </c>
       <c r="AB2" t="n">
-        <v>4121.00334465083</v>
+        <v>4292.276866439493</v>
       </c>
       <c r="AC2" t="n">
-        <v>3727.700569301719</v>
+        <v>3882.627986554764</v>
       </c>
       <c r="AD2" t="n">
-        <v>3011891.879373442</v>
+        <v>3137069.484506077</v>
       </c>
       <c r="AE2" t="n">
-        <v>4121003.344650829</v>
+        <v>4292276.866439493</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.667504421653052e-07</v>
+        <v>1.502820270203354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.12467447916666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3727700.569301719</v>
+        <v>3882627.986554764</v>
       </c>
     </row>
     <row r="3">
@@ -19064,28 +19064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1824.843971975326</v>
+        <v>1916.006297308582</v>
       </c>
       <c r="AB3" t="n">
-        <v>2496.832028890826</v>
+        <v>2621.564344209736</v>
       </c>
       <c r="AC3" t="n">
-        <v>2258.537884379246</v>
+        <v>2371.365922587024</v>
       </c>
       <c r="AD3" t="n">
-        <v>1824843.971975326</v>
+        <v>1916006.297308582</v>
       </c>
       <c r="AE3" t="n">
-        <v>2496832.028890826</v>
+        <v>2621564.344209736</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034043328298466e-06</v>
+        <v>2.026710633054257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.6640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2258537.884379246</v>
+        <v>2371365.922587024</v>
       </c>
     </row>
     <row r="4">
@@ -19170,28 +19170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1571.245848014868</v>
+        <v>1650.927631335447</v>
       </c>
       <c r="AB4" t="n">
-        <v>2149.847887728505</v>
+        <v>2258.872018979902</v>
       </c>
       <c r="AC4" t="n">
-        <v>1944.669422654157</v>
+        <v>2043.28844383525</v>
       </c>
       <c r="AD4" t="n">
-        <v>1571245.848014868</v>
+        <v>1650927.631335447</v>
       </c>
       <c r="AE4" t="n">
-        <v>2149847.887728505</v>
+        <v>2258872.018979902</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>2.21726941358491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.31640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1944669.422654157</v>
+        <v>2043288.44383525</v>
       </c>
     </row>
     <row r="5">
@@ -19276,28 +19276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1449.990555836309</v>
+        <v>1529.757590502908</v>
       </c>
       <c r="AB5" t="n">
-        <v>1983.941047563852</v>
+        <v>2093.081823467898</v>
       </c>
       <c r="AC5" t="n">
-        <v>1794.596498463105</v>
+        <v>1893.321031894911</v>
       </c>
       <c r="AD5" t="n">
-        <v>1449990.555836309</v>
+        <v>1529757.590502908</v>
       </c>
       <c r="AE5" t="n">
-        <v>1983941.047563852</v>
+        <v>2093081.823467898</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181024561663575e-06</v>
+        <v>2.314791819178898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.71419270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1794596.498463105</v>
+        <v>1893321.031894911</v>
       </c>
     </row>
     <row r="6">
@@ -19382,28 +19382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1383.427608942002</v>
+        <v>1463.024051408009</v>
       </c>
       <c r="AB6" t="n">
-        <v>1892.866687073095</v>
+        <v>2001.774051202294</v>
       </c>
       <c r="AC6" t="n">
-        <v>1712.214147113919</v>
+        <v>1810.727545263073</v>
       </c>
       <c r="AD6" t="n">
-        <v>1383427.608942002</v>
+        <v>1463024.051408009</v>
       </c>
       <c r="AE6" t="n">
-        <v>1892866.687073095</v>
+        <v>2001774.051202294</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.211475649957226e-06</v>
+        <v>2.374475531402418e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.369140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1712214.147113919</v>
+        <v>1810727.545263073</v>
       </c>
     </row>
     <row r="7">
@@ -19488,28 +19488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1336.857977274091</v>
+        <v>1405.229810782584</v>
       </c>
       <c r="AB7" t="n">
-        <v>1829.148062517909</v>
+        <v>1922.697421476641</v>
       </c>
       <c r="AC7" t="n">
-        <v>1654.576738656629</v>
+        <v>1739.197878093689</v>
       </c>
       <c r="AD7" t="n">
-        <v>1336857.977274091</v>
+        <v>1405229.810782584</v>
       </c>
       <c r="AE7" t="n">
-        <v>1829148.06251791</v>
+        <v>1922697.421476641</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.231875888846764e-06</v>
+        <v>2.414459717695953e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.14778645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1654576.738656629</v>
+        <v>1739197.878093689</v>
       </c>
     </row>
     <row r="8">
@@ -19594,28 +19594,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1286.410411734743</v>
+        <v>1366.09210554677</v>
       </c>
       <c r="AB8" t="n">
-        <v>1760.123477757456</v>
+        <v>1869.147486539305</v>
       </c>
       <c r="AC8" t="n">
-        <v>1592.1397633891</v>
+        <v>1690.758673788966</v>
       </c>
       <c r="AD8" t="n">
-        <v>1286410.411734743</v>
+        <v>1366092.10554677</v>
       </c>
       <c r="AE8" t="n">
-        <v>1760123.477757456</v>
+        <v>1869147.486539305</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.247101432993589e-06</v>
+        <v>2.444301573807713e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.98665364583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1592139.7633891</v>
+        <v>1690758.673788966</v>
       </c>
     </row>
     <row r="9">
@@ -19700,28 +19700,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1251.855666968252</v>
+        <v>1331.537360780279</v>
       </c>
       <c r="AB9" t="n">
-        <v>1712.844151520194</v>
+        <v>1821.868160302043</v>
       </c>
       <c r="AC9" t="n">
-        <v>1549.372709690972</v>
+        <v>1647.991620090838</v>
       </c>
       <c r="AD9" t="n">
-        <v>1251855.666968252</v>
+        <v>1331537.360780279</v>
       </c>
       <c r="AE9" t="n">
-        <v>1712844.151520194</v>
+        <v>1821868.160302043</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259242062966875e-06</v>
+        <v>2.468097040772647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.86295572916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1549372.709690972</v>
+        <v>1647991.620090838</v>
       </c>
     </row>
     <row r="10">
@@ -19806,28 +19806,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1226.781470610916</v>
+        <v>1306.463164422943</v>
       </c>
       <c r="AB10" t="n">
-        <v>1678.536529868615</v>
+        <v>1787.560538650464</v>
       </c>
       <c r="AC10" t="n">
-        <v>1518.33935929877</v>
+        <v>1616.958269698636</v>
       </c>
       <c r="AD10" t="n">
-        <v>1226781.470610916</v>
+        <v>1306463.164422943</v>
       </c>
       <c r="AE10" t="n">
-        <v>1678536.529868615</v>
+        <v>1787560.538650464</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267501671883127e-06</v>
+        <v>2.484285760101248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.7783203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1518339.35929877</v>
+        <v>1616958.269698636</v>
       </c>
     </row>
     <row r="11">
@@ -19912,28 +19912,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1197.621508440799</v>
+        <v>1277.303202252826</v>
       </c>
       <c r="AB11" t="n">
-        <v>1638.638583180723</v>
+        <v>1747.662591962572</v>
       </c>
       <c r="AC11" t="n">
-        <v>1482.24921664565</v>
+        <v>1580.868127045517</v>
       </c>
       <c r="AD11" t="n">
-        <v>1197621.508440799</v>
+        <v>1277303.202252826</v>
       </c>
       <c r="AE11" t="n">
-        <v>1638638.583180723</v>
+        <v>1747662.591962572</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.275562254078505e-06</v>
+        <v>2.500084389807475e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.69694010416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1482249.21664565</v>
+        <v>1580868.127045517</v>
       </c>
     </row>
     <row r="12">
@@ -20018,28 +20018,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1172.795126447887</v>
+        <v>1252.476820259914</v>
       </c>
       <c r="AB12" t="n">
-        <v>1604.670032075347</v>
+        <v>1713.694040857196</v>
       </c>
       <c r="AC12" t="n">
-        <v>1451.52257638261</v>
+        <v>1550.141486782477</v>
       </c>
       <c r="AD12" t="n">
-        <v>1172795.126447887</v>
+        <v>1252476.820259914</v>
       </c>
       <c r="AE12" t="n">
-        <v>1604670.032075347</v>
+        <v>1713694.040857196</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.281433542344274e-06</v>
+        <v>2.511592033667565e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.63997395833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1451522.57638261</v>
+        <v>1550141.486782477</v>
       </c>
     </row>
     <row r="13">
@@ -20124,28 +20124,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1146.981688058402</v>
+        <v>1226.663381870429</v>
       </c>
       <c r="AB13" t="n">
-        <v>1569.350946862325</v>
+        <v>1678.374955644174</v>
       </c>
       <c r="AC13" t="n">
-        <v>1419.574295091672</v>
+        <v>1518.193205491538</v>
       </c>
       <c r="AD13" t="n">
-        <v>1146981.688058402</v>
+        <v>1226663.381870429</v>
       </c>
       <c r="AE13" t="n">
-        <v>1569350.946862325</v>
+        <v>1678374.955644174</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.28680726380786e-06</v>
+        <v>2.522124453471716e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.58626302083333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1419574.295091672</v>
+        <v>1518193.205491538</v>
       </c>
     </row>
     <row r="14">
@@ -20230,28 +20230,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1139.285622915397</v>
+        <v>1218.967316727425</v>
       </c>
       <c r="AB14" t="n">
-        <v>1558.820851007234</v>
+        <v>1667.844859789083</v>
       </c>
       <c r="AC14" t="n">
-        <v>1410.049176805908</v>
+        <v>1508.668087205775</v>
       </c>
       <c r="AD14" t="n">
-        <v>1139285.622915397</v>
+        <v>1218967.316727425</v>
       </c>
       <c r="AE14" t="n">
-        <v>1558820.851007234</v>
+        <v>1667844.859789083</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.288498990935285e-06</v>
+        <v>2.525440215261911e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.56998697916667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1410049.176805909</v>
+        <v>1508668.087205775</v>
       </c>
     </row>
     <row r="15">
@@ -20336,28 +20336,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1139.649289351548</v>
+        <v>1219.330983163575</v>
       </c>
       <c r="AB15" t="n">
-        <v>1559.318435469006</v>
+        <v>1668.342444250855</v>
       </c>
       <c r="AC15" t="n">
-        <v>1410.499272505013</v>
+        <v>1509.11818290488</v>
       </c>
       <c r="AD15" t="n">
-        <v>1139649.289351548</v>
+        <v>1219330.983163575</v>
       </c>
       <c r="AE15" t="n">
-        <v>1559318.435469006</v>
+        <v>1668342.444250855</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.289394611179216e-06</v>
+        <v>2.527195618562603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.56184895833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1410499.272505013</v>
+        <v>1509118.18290488</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3627.868171879472</v>
+        <v>3767.533358216956</v>
       </c>
       <c r="AB2" t="n">
-        <v>4963.809283013741</v>
+        <v>5154.905352553855</v>
       </c>
       <c r="AC2" t="n">
-        <v>4490.070291792807</v>
+        <v>4662.928420661022</v>
       </c>
       <c r="AD2" t="n">
-        <v>3627868.171879472</v>
+        <v>3767533.358216955</v>
       </c>
       <c r="AE2" t="n">
-        <v>4963809.283013741</v>
+        <v>5154905.352553855</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.937357465065145e-07</v>
+        <v>1.333847857372918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.87434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4490070.291792806</v>
+        <v>4662928.420661022</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2063.470123402653</v>
+        <v>2156.551890184669</v>
       </c>
       <c r="AB3" t="n">
-        <v>2823.330856716506</v>
+        <v>2950.68943650539</v>
       </c>
       <c r="AC3" t="n">
-        <v>2553.876122321227</v>
+        <v>2669.07977800395</v>
       </c>
       <c r="AD3" t="n">
-        <v>2063470.123402653</v>
+        <v>2156551.890184669</v>
       </c>
       <c r="AE3" t="n">
-        <v>2823330.856716506</v>
+        <v>2950689.43650539</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.774702542133249e-07</v>
+        <v>1.879385069594308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.2353515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2553876.122321227</v>
+        <v>2669079.77800395</v>
       </c>
     </row>
     <row r="4">
@@ -20845,28 +20845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1744.216830590718</v>
+        <v>1837.298507864183</v>
       </c>
       <c r="AB4" t="n">
-        <v>2386.514417029969</v>
+        <v>2513.872874349305</v>
       </c>
       <c r="AC4" t="n">
-        <v>2158.74883056265</v>
+        <v>2273.952375464145</v>
       </c>
       <c r="AD4" t="n">
-        <v>1744216.830590718</v>
+        <v>1837298.507864184</v>
       </c>
       <c r="AE4" t="n">
-        <v>2386514.417029969</v>
+        <v>2513872.874349305</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.081213730570729e-06</v>
+        <v>2.078852971245016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.677734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2158748.83056265</v>
+        <v>2273952.375464146</v>
       </c>
     </row>
     <row r="5">
@@ -20951,28 +20951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1600.472882944626</v>
+        <v>1693.469219363519</v>
       </c>
       <c r="AB5" t="n">
-        <v>2189.837606325179</v>
+        <v>2317.079296522317</v>
       </c>
       <c r="AC5" t="n">
-        <v>1980.842578633887</v>
+        <v>2095.940500503444</v>
       </c>
       <c r="AD5" t="n">
-        <v>1600472.882944626</v>
+        <v>1693469.219363519</v>
       </c>
       <c r="AE5" t="n">
-        <v>2189837.606325179</v>
+        <v>2317079.296522317</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135620553698015e-06</v>
+        <v>2.183461137712211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.974609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1980842.578633887</v>
+        <v>2095940.500503444</v>
       </c>
     </row>
     <row r="6">
@@ -21057,28 +21057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1523.158987397842</v>
+        <v>1604.680128259874</v>
       </c>
       <c r="AB6" t="n">
-        <v>2084.053323589722</v>
+        <v>2195.594144976063</v>
       </c>
       <c r="AC6" t="n">
-        <v>1885.154199373529</v>
+        <v>1986.049721315284</v>
       </c>
       <c r="AD6" t="n">
-        <v>1523158.987397842</v>
+        <v>1604680.128259873</v>
       </c>
       <c r="AE6" t="n">
-        <v>2084053.323589722</v>
+        <v>2195594.144976064</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.168869167831356e-06</v>
+        <v>2.247388350553274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.57747395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1885154.199373529</v>
+        <v>1986049.721315284</v>
       </c>
     </row>
     <row r="7">
@@ -21163,28 +21163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1469.202766361582</v>
+        <v>1550.553315023022</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010.228041587439</v>
+        <v>2121.535451198934</v>
       </c>
       <c r="AC7" t="n">
-        <v>1818.374698671109</v>
+        <v>1919.059085330214</v>
       </c>
       <c r="AD7" t="n">
-        <v>1469202.766361582</v>
+        <v>1550553.315023022</v>
       </c>
       <c r="AE7" t="n">
-        <v>2010228.041587439</v>
+        <v>2121535.451198934</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191684932368604e-06</v>
+        <v>2.291256291329839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.31705729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1818374.698671109</v>
+        <v>1919059.085330214</v>
       </c>
     </row>
     <row r="8">
@@ -21269,28 +21269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1427.961523521301</v>
+        <v>1497.83687662588</v>
       </c>
       <c r="AB8" t="n">
-        <v>1953.799953698142</v>
+        <v>2049.40649449884</v>
       </c>
       <c r="AC8" t="n">
-        <v>1767.332028292648</v>
+        <v>1853.814015023951</v>
       </c>
       <c r="AD8" t="n">
-        <v>1427961.523521301</v>
+        <v>1497836.87662588</v>
       </c>
       <c r="AE8" t="n">
-        <v>1953799.953698142</v>
+        <v>2049406.49449884</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.208748004137914e-06</v>
+        <v>2.324063511996074e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.1298828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1767332.028292648</v>
+        <v>1853814.01502395</v>
       </c>
     </row>
     <row r="9">
@@ -21375,28 +21375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1396.379158763834</v>
+        <v>1466.254511868413</v>
       </c>
       <c r="AB9" t="n">
-        <v>1910.587568921378</v>
+        <v>2006.194109722076</v>
       </c>
       <c r="AC9" t="n">
-        <v>1728.243772870015</v>
+        <v>1814.725759601318</v>
       </c>
       <c r="AD9" t="n">
-        <v>1396379.158763834</v>
+        <v>1466254.511868413</v>
       </c>
       <c r="AE9" t="n">
-        <v>1910587.568921378</v>
+        <v>2006194.109722076</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220545899475551e-06</v>
+        <v>2.346747361713871e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1728243.772870015</v>
+        <v>1814725.759601318</v>
       </c>
     </row>
     <row r="10">
@@ -21481,28 +21481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1357.555345818123</v>
+        <v>1438.991145825584</v>
       </c>
       <c r="AB10" t="n">
-        <v>1857.467115263311</v>
+        <v>1968.891169527455</v>
       </c>
       <c r="AC10" t="n">
-        <v>1680.19306075405</v>
+        <v>1780.982959663866</v>
       </c>
       <c r="AD10" t="n">
-        <v>1357555.345818123</v>
+        <v>1438991.145825583</v>
       </c>
       <c r="AE10" t="n">
-        <v>1857467.115263311</v>
+        <v>1968891.169527455</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.230003716399112e-06</v>
+        <v>2.364931935454584e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.90201822916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1680193.06075405</v>
+        <v>1780982.959663866</v>
       </c>
     </row>
     <row r="11">
@@ -21587,28 +21587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1330.388196350397</v>
+        <v>1411.823996357858</v>
       </c>
       <c r="AB11" t="n">
-        <v>1820.295822831522</v>
+        <v>1931.719877095666</v>
       </c>
       <c r="AC11" t="n">
-        <v>1646.569344301714</v>
+        <v>1747.359243211531</v>
       </c>
       <c r="AD11" t="n">
-        <v>1330388.196350398</v>
+        <v>1411823.996357858</v>
       </c>
       <c r="AE11" t="n">
-        <v>1820295.822831522</v>
+        <v>1931719.877095666</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.238096487581127e-06</v>
+        <v>2.380491931541998e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.8173828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1646569.344301714</v>
+        <v>1747359.243211531</v>
       </c>
     </row>
     <row r="12">
@@ -21693,28 +21693,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1305.634312809649</v>
+        <v>1387.070112817109</v>
       </c>
       <c r="AB12" t="n">
-        <v>1786.426467306802</v>
+        <v>1897.850521570947</v>
       </c>
       <c r="AC12" t="n">
-        <v>1615.932432532335</v>
+        <v>1716.722331442151</v>
       </c>
       <c r="AD12" t="n">
-        <v>1305634.312809649</v>
+        <v>1387070.11281711</v>
       </c>
       <c r="AE12" t="n">
-        <v>1786426.467306802</v>
+        <v>1897850.521570947</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.245604239159624e-06</v>
+        <v>2.394927108635142e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.74088541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1615932.432532335</v>
+        <v>1716722.331442151</v>
       </c>
     </row>
     <row r="13">
@@ -21799,28 +21799,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1282.570911434407</v>
+        <v>1364.006711441868</v>
       </c>
       <c r="AB13" t="n">
-        <v>1754.870104059739</v>
+        <v>1866.294158323883</v>
       </c>
       <c r="AC13" t="n">
-        <v>1587.387764303936</v>
+        <v>1688.177663213753</v>
       </c>
       <c r="AD13" t="n">
-        <v>1282570.911434407</v>
+        <v>1364006.711441868</v>
       </c>
       <c r="AE13" t="n">
-        <v>1754870.104059739</v>
+        <v>1866294.158323883</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.25038189925503e-06</v>
+        <v>2.404113130421687e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.69205729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1587387.764303936</v>
+        <v>1688177.663213753</v>
       </c>
     </row>
     <row r="14">
@@ -21905,28 +21905,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1263.509899072774</v>
+        <v>1344.945699080234</v>
       </c>
       <c r="AB14" t="n">
-        <v>1728.789986034034</v>
+        <v>1840.214040298178</v>
       </c>
       <c r="AC14" t="n">
-        <v>1563.79669613893</v>
+        <v>1664.586595048746</v>
       </c>
       <c r="AD14" t="n">
-        <v>1263509.899072774</v>
+        <v>1344945.699080234</v>
       </c>
       <c r="AE14" t="n">
-        <v>1728789.986034034</v>
+        <v>1840214.040298178</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255159559350437e-06</v>
+        <v>2.413299152208233e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1563796.69613893</v>
+        <v>1664586.595048746</v>
       </c>
     </row>
     <row r="15">
@@ -22011,28 +22011,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1242.149782352965</v>
+        <v>1323.585582360425</v>
       </c>
       <c r="AB15" t="n">
-        <v>1699.56413199615</v>
+        <v>1810.988186260294</v>
       </c>
       <c r="AC15" t="n">
-        <v>1537.360116591677</v>
+        <v>1638.150015501494</v>
       </c>
       <c r="AD15" t="n">
-        <v>1242149.782352965</v>
+        <v>1323585.582360425</v>
       </c>
       <c r="AE15" t="n">
-        <v>1699564.13199615</v>
+        <v>1810988.186260294</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259547206376831e-06</v>
+        <v>2.421735294665264e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.59928385416667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1537360.116591677</v>
+        <v>1638150.015501494</v>
       </c>
     </row>
     <row r="16">
@@ -22117,28 +22117,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1223.394456501286</v>
+        <v>1304.830256508746</v>
       </c>
       <c r="AB16" t="n">
-        <v>1673.902267739302</v>
+        <v>1785.326322003446</v>
       </c>
       <c r="AC16" t="n">
-        <v>1514.147384642851</v>
+        <v>1614.937283552667</v>
       </c>
       <c r="AD16" t="n">
-        <v>1223394.456501286</v>
+        <v>1304830.256508746</v>
       </c>
       <c r="AE16" t="n">
-        <v>1673902.267739302</v>
+        <v>1785326.322003447</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.262959820730693e-06</v>
+        <v>2.428296738798511e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1514147.384642851</v>
+        <v>1614937.283552667</v>
       </c>
     </row>
     <row r="17">
@@ -22223,28 +22223,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1210.442227928964</v>
+        <v>1291.878027936425</v>
       </c>
       <c r="AB17" t="n">
-        <v>1656.180457194656</v>
+        <v>1767.6045114588</v>
       </c>
       <c r="AC17" t="n">
-        <v>1498.116918823868</v>
+        <v>1598.906817733685</v>
       </c>
       <c r="AD17" t="n">
-        <v>1210442.227928964</v>
+        <v>1291878.027936425</v>
       </c>
       <c r="AE17" t="n">
-        <v>1656180.457194656</v>
+        <v>1767604.5114588</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264422369739491e-06</v>
+        <v>2.431108786284189e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.55045572916667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1498116.918823868</v>
+        <v>1598906.817733685</v>
       </c>
     </row>
     <row r="18">
@@ -22329,28 +22329,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1214.372303078726</v>
+        <v>1295.808103086187</v>
       </c>
       <c r="AB18" t="n">
-        <v>1661.557759397239</v>
+        <v>1772.981813661384</v>
       </c>
       <c r="AC18" t="n">
-        <v>1502.981018851328</v>
+        <v>1603.770917761145</v>
       </c>
       <c r="AD18" t="n">
-        <v>1214372.303078726</v>
+        <v>1295808.103086187</v>
       </c>
       <c r="AE18" t="n">
-        <v>1661557.759397239</v>
+        <v>1772981.813661383</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>2.430546376787053e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5537109375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1502981.018851328</v>
+        <v>1603770.917761144</v>
       </c>
     </row>
     <row r="19">
@@ -22435,28 +22435,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1218.823386369431</v>
+        <v>1300.259186376892</v>
       </c>
       <c r="AB19" t="n">
-        <v>1667.647927923517</v>
+        <v>1779.071982187661</v>
       </c>
       <c r="AC19" t="n">
-        <v>1508.489950241063</v>
+        <v>1609.27984915088</v>
       </c>
       <c r="AD19" t="n">
-        <v>1218823.386369431</v>
+        <v>1300259.186376892</v>
       </c>
       <c r="AE19" t="n">
-        <v>1667647.927923517</v>
+        <v>1779071.982187661</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.264227363204985e-06</v>
+        <v>2.430733846619432e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.5537109375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1508489.950241063</v>
+        <v>1609279.84915088</v>
       </c>
     </row>
     <row r="20">
@@ -22541,28 +22541,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1224.666482319348</v>
+        <v>1306.102282326808</v>
       </c>
       <c r="AB20" t="n">
-        <v>1675.642709581393</v>
+        <v>1787.066763845538</v>
       </c>
       <c r="AC20" t="n">
-        <v>1515.721721158258</v>
+        <v>1616.511620068075</v>
       </c>
       <c r="AD20" t="n">
-        <v>1224666.482319348</v>
+        <v>1306102.282326808</v>
       </c>
       <c r="AE20" t="n">
-        <v>1675642.709581393</v>
+        <v>1787066.763845538</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>2.430546376787053e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.5537109375</v>
       </c>
       <c r="AH20" t="n">
-        <v>1515721.721158258</v>
+        <v>1616511.620068074</v>
       </c>
     </row>
   </sheetData>
@@ -22838,28 +22838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5256.909288453253</v>
+        <v>5414.116498673608</v>
       </c>
       <c r="AB2" t="n">
-        <v>7192.735206931975</v>
+        <v>7407.83304744811</v>
       </c>
       <c r="AC2" t="n">
-        <v>6506.270653849381</v>
+        <v>6700.839858358363</v>
       </c>
       <c r="AD2" t="n">
-        <v>5256909.288453253</v>
+        <v>5414116.498673609</v>
       </c>
       <c r="AE2" t="n">
-        <v>7192735.206931975</v>
+        <v>7407833.04744811</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667449030617091e-07</v>
+        <v>1.055802768829613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.0263671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>6506270.653849381</v>
+        <v>6700839.858358363</v>
       </c>
     </row>
     <row r="3">
@@ -22944,28 +22944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2580.677617729309</v>
+        <v>2689.513316683634</v>
       </c>
       <c r="AB3" t="n">
-        <v>3530.996968038703</v>
+        <v>3679.910772840186</v>
       </c>
       <c r="AC3" t="n">
-        <v>3194.003573194326</v>
+        <v>3328.705253467387</v>
       </c>
       <c r="AD3" t="n">
-        <v>2580677.617729309</v>
+        <v>2689513.316683635</v>
       </c>
       <c r="AE3" t="n">
-        <v>3530996.968038703</v>
+        <v>3679910.772840186</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.74210130279013e-07</v>
+        <v>1.628587166997389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52115885416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3194003.573194326</v>
+        <v>3328705.253467387</v>
       </c>
     </row>
     <row r="4">
@@ -23050,28 +23050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2114.435945805822</v>
+        <v>2211.008197120189</v>
       </c>
       <c r="AB4" t="n">
-        <v>2893.064543381919</v>
+        <v>3025.198958097447</v>
       </c>
       <c r="AC4" t="n">
-        <v>2616.954523803136</v>
+        <v>2736.478215429917</v>
       </c>
       <c r="AD4" t="n">
-        <v>2114435.945805822</v>
+        <v>2211008.197120189</v>
       </c>
       <c r="AE4" t="n">
-        <v>2893064.543381919</v>
+        <v>3025198.958097447</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.915682993454281e-07</v>
+        <v>1.847216534770642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.44759114583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2616954.523803136</v>
+        <v>2736478.215429917</v>
       </c>
     </row>
     <row r="5">
@@ -23156,28 +23156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1918.015045413031</v>
+        <v>2014.672548073416</v>
       </c>
       <c r="AB5" t="n">
-        <v>2624.312801985956</v>
+        <v>2756.563861353957</v>
       </c>
       <c r="AC5" t="n">
-        <v>2373.852071410565</v>
+        <v>2493.481275288013</v>
       </c>
       <c r="AD5" t="n">
-        <v>1918015.045413031</v>
+        <v>2014672.548073416</v>
       </c>
       <c r="AE5" t="n">
-        <v>2624312.801985955</v>
+        <v>2756563.861353957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053400149446979e-06</v>
+        <v>1.962404581785098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.541015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2373852.071410565</v>
+        <v>2493481.275288012</v>
       </c>
     </row>
     <row r="6">
@@ -23262,28 +23262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1814.27519952922</v>
+        <v>1898.839936258786</v>
       </c>
       <c r="AB6" t="n">
-        <v>2482.37136816873</v>
+        <v>2598.076571695005</v>
       </c>
       <c r="AC6" t="n">
-        <v>2245.457328820803</v>
+        <v>2350.119790115803</v>
       </c>
       <c r="AD6" t="n">
-        <v>1814275.19952922</v>
+        <v>1898839.936258786</v>
       </c>
       <c r="AE6" t="n">
-        <v>2482371.36816873</v>
+        <v>2598076.571695005</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091986235507308e-06</v>
+        <v>2.034287533498837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.02669270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2245457.328820803</v>
+        <v>2350119.790115803</v>
       </c>
     </row>
     <row r="7">
@@ -23368,28 +23368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1733.474852792008</v>
+        <v>1818.124840867594</v>
       </c>
       <c r="AB7" t="n">
-        <v>2371.816769103159</v>
+        <v>2487.638617282083</v>
       </c>
       <c r="AC7" t="n">
-        <v>2145.453905525696</v>
+        <v>2250.221879071408</v>
       </c>
       <c r="AD7" t="n">
-        <v>1733474.852792008</v>
+        <v>1818124.840867594</v>
       </c>
       <c r="AE7" t="n">
-        <v>2371816.769103159</v>
+        <v>2487638.617282083</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118243596509337e-06</v>
+        <v>2.083203005518675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2145453.905525696</v>
+        <v>2250221.879071408</v>
       </c>
     </row>
     <row r="8">
@@ -23474,28 +23474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1680.090369241433</v>
+        <v>1764.569765116428</v>
       </c>
       <c r="AB8" t="n">
-        <v>2298.773763552068</v>
+        <v>2414.362199956145</v>
       </c>
       <c r="AC8" t="n">
-        <v>2079.382021907898</v>
+        <v>2183.938860170959</v>
       </c>
       <c r="AD8" t="n">
-        <v>1680090.369241433</v>
+        <v>1764569.765116428</v>
       </c>
       <c r="AE8" t="n">
-        <v>2298773.763552067</v>
+        <v>2414362.199956145</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.13894832561488e-06</v>
+        <v>2.121774345462633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.44889322916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2079382.021907898</v>
+        <v>2183938.860170959</v>
       </c>
     </row>
     <row r="9">
@@ -23580,28 +23580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1642.274766370678</v>
+        <v>1726.754162245673</v>
       </c>
       <c r="AB9" t="n">
-        <v>2247.032787397645</v>
+        <v>2362.621223801722</v>
       </c>
       <c r="AC9" t="n">
-        <v>2032.579131898738</v>
+        <v>2137.135970161799</v>
       </c>
       <c r="AD9" t="n">
-        <v>1642274.766370678</v>
+        <v>1726754.162245673</v>
       </c>
       <c r="AE9" t="n">
-        <v>2247032.787397645</v>
+        <v>2362621.223801722</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.153253411178709e-06</v>
+        <v>2.148423634878459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2032579.131898738</v>
+        <v>2137135.970161799</v>
       </c>
     </row>
     <row r="10">
@@ -23686,28 +23686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1612.313812498519</v>
+        <v>1684.871034643287</v>
       </c>
       <c r="AB10" t="n">
-        <v>2206.038888525758</v>
+        <v>2305.314880862956</v>
       </c>
       <c r="AC10" t="n">
-        <v>1995.497633199886</v>
+        <v>2085.298864163151</v>
       </c>
       <c r="AD10" t="n">
-        <v>1612313.812498519</v>
+        <v>1684871.034643287</v>
       </c>
       <c r="AE10" t="n">
-        <v>2206038.888525758</v>
+        <v>2305314.880862956</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.163982225351581e-06</v>
+        <v>2.168410601940327e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.16080729166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1995497.633199885</v>
+        <v>2085298.864163151</v>
       </c>
     </row>
     <row r="11">
@@ -23792,28 +23792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1586.956475125091</v>
+        <v>1659.513697269859</v>
       </c>
       <c r="AB11" t="n">
-        <v>2171.343860844663</v>
+        <v>2270.619853181861</v>
       </c>
       <c r="AC11" t="n">
-        <v>1964.113850265897</v>
+        <v>2053.915081229163</v>
       </c>
       <c r="AD11" t="n">
-        <v>1586956.475125091</v>
+        <v>1659513.697269859</v>
       </c>
       <c r="AE11" t="n">
-        <v>2171343.860844663</v>
+        <v>2270619.853181861</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.1733934658541e-06</v>
+        <v>2.185943029187581e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.05501302083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1964113.850265897</v>
+        <v>2053915.081229163</v>
       </c>
     </row>
     <row r="12">
@@ -23898,28 +23898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1550.651609742508</v>
+        <v>1635.216256963522</v>
       </c>
       <c r="AB12" t="n">
-        <v>2121.669942370591</v>
+        <v>2237.375023427318</v>
       </c>
       <c r="AC12" t="n">
-        <v>1919.180740853207</v>
+        <v>2023.843091366981</v>
       </c>
       <c r="AD12" t="n">
-        <v>1550651.609742508</v>
+        <v>1635216.256963522</v>
       </c>
       <c r="AE12" t="n">
-        <v>2121669.942370591</v>
+        <v>2237375.023427317</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.181204795471191e-06</v>
+        <v>2.200494943802802e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.96712239583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1919180.740853207</v>
+        <v>2023843.091366981</v>
       </c>
     </row>
     <row r="13">
@@ -24004,28 +24004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1530.928853600611</v>
+        <v>1615.493500821626</v>
       </c>
       <c r="AB13" t="n">
-        <v>2094.684397310656</v>
+        <v>2210.389478367382</v>
       </c>
       <c r="AC13" t="n">
-        <v>1894.770658339342</v>
+        <v>1999.433008853116</v>
       </c>
       <c r="AD13" t="n">
-        <v>1530928.853600611</v>
+        <v>1615493.500821626</v>
       </c>
       <c r="AE13" t="n">
-        <v>2094684.397310656</v>
+        <v>2210389.478367382</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.187039764582753e-06</v>
+        <v>2.211365048696099e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1894770.658339342</v>
+        <v>1999433.008853116</v>
       </c>
     </row>
     <row r="14">
@@ -24110,28 +24110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1512.342501206456</v>
+        <v>1596.907148427471</v>
       </c>
       <c r="AB14" t="n">
-        <v>2069.253729992975</v>
+        <v>2184.958811049702</v>
       </c>
       <c r="AC14" t="n">
-        <v>1871.767058218296</v>
+        <v>1976.42940873207</v>
       </c>
       <c r="AD14" t="n">
-        <v>1512342.501206456</v>
+        <v>1596907.148427471</v>
       </c>
       <c r="AE14" t="n">
-        <v>2069253.729992975</v>
+        <v>2184958.811049702</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.192310059264163e-06</v>
+        <v>2.221183207954561e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.8466796875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1871767.058218296</v>
+        <v>1976429.408732069</v>
       </c>
     </row>
     <row r="15">
@@ -24216,28 +24216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1495.745181974066</v>
+        <v>1580.309829195082</v>
       </c>
       <c r="AB15" t="n">
-        <v>2046.544545597174</v>
+        <v>2162.249626653901</v>
       </c>
       <c r="AC15" t="n">
-        <v>1851.225206508689</v>
+        <v>1955.887557022462</v>
       </c>
       <c r="AD15" t="n">
-        <v>1495745.181974066</v>
+        <v>1580309.829195082</v>
       </c>
       <c r="AE15" t="n">
-        <v>2046544.545597174</v>
+        <v>2162249.6266539</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.196921567110398e-06</v>
+        <v>2.229774097305715e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.7978515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1851225.206508689</v>
+        <v>1955887.557022463</v>
       </c>
     </row>
     <row r="16">
@@ -24322,28 +24322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1478.170306603922</v>
+        <v>1562.734953824937</v>
       </c>
       <c r="AB16" t="n">
-        <v>2022.497825766962</v>
+        <v>2138.202906823689</v>
       </c>
       <c r="AC16" t="n">
-        <v>1829.47347186929</v>
+        <v>1934.135822383064</v>
       </c>
       <c r="AD16" t="n">
-        <v>1478170.306603923</v>
+        <v>1562734.953824937</v>
       </c>
       <c r="AE16" t="n">
-        <v>2022497.825766962</v>
+        <v>2138202.906823689</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.201627187361658e-06</v>
+        <v>2.238540310929342e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.74739583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1829473.47186929</v>
+        <v>1934135.822383064</v>
       </c>
     </row>
     <row r="17">
@@ -24428,28 +24428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1463.307641988943</v>
+        <v>1547.872289209958</v>
       </c>
       <c r="AB17" t="n">
-        <v>2002.162072346261</v>
+        <v>2117.867153402988</v>
       </c>
       <c r="AC17" t="n">
-        <v>1811.078534213651</v>
+        <v>1915.740884727425</v>
       </c>
       <c r="AD17" t="n">
-        <v>1463307.641988943</v>
+        <v>1547872.289209958</v>
       </c>
       <c r="AE17" t="n">
-        <v>2002162.072346261</v>
+        <v>2117867.153402988</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.204921121537539e-06</v>
+        <v>2.244676660465881e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.71321614583333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1811078.534213651</v>
+        <v>1915740.884727425</v>
       </c>
     </row>
     <row r="18">
@@ -24534,28 +24534,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1446.022714847982</v>
+        <v>1530.587362068997</v>
       </c>
       <c r="AB18" t="n">
-        <v>1978.512072474832</v>
+        <v>2094.217153531559</v>
       </c>
       <c r="AC18" t="n">
-        <v>1789.685657136968</v>
+        <v>1894.348007650741</v>
       </c>
       <c r="AD18" t="n">
-        <v>1446022.714847982</v>
+        <v>1530587.362068997</v>
       </c>
       <c r="AE18" t="n">
-        <v>1978512.072474832</v>
+        <v>2094217.153531559</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.208685617738547e-06</v>
+        <v>2.251689631364783e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.67415364583333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1789685.657136968</v>
+        <v>1894348.007650741</v>
       </c>
     </row>
     <row r="19">
@@ -24640,28 +24640,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1430.964826072336</v>
+        <v>1515.529473293351</v>
       </c>
       <c r="AB19" t="n">
-        <v>1957.909204744825</v>
+        <v>2073.614285801552</v>
       </c>
       <c r="AC19" t="n">
-        <v>1771.049098186806</v>
+        <v>1875.71144870058</v>
       </c>
       <c r="AD19" t="n">
-        <v>1430964.826072336</v>
+        <v>1515529.473293351</v>
       </c>
       <c r="AE19" t="n">
-        <v>1957909.204744825</v>
+        <v>2073614.285801552</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210661978244076e-06</v>
+        <v>2.255371441086706e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.65299479166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1771049.098186806</v>
+        <v>1875711.44870058</v>
       </c>
     </row>
     <row r="20">
@@ -24746,28 +24746,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1414.093814802741</v>
+        <v>1498.658462023756</v>
       </c>
       <c r="AB20" t="n">
-        <v>1934.825542829277</v>
+        <v>2050.530623886004</v>
       </c>
       <c r="AC20" t="n">
-        <v>1750.168508566355</v>
+        <v>1854.830859080129</v>
       </c>
       <c r="AD20" t="n">
-        <v>1414093.814802741</v>
+        <v>1498658.462023756</v>
       </c>
       <c r="AE20" t="n">
-        <v>1934825.542829277</v>
+        <v>2050530.623886004</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214426474445084e-06</v>
+        <v>2.262384411985607e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.61393229166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1750168.508566355</v>
+        <v>1854830.859080129</v>
       </c>
     </row>
     <row r="21">
@@ -24852,28 +24852,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1401.309595442706</v>
+        <v>1485.874242663721</v>
       </c>
       <c r="AB21" t="n">
-        <v>1917.333609900925</v>
+        <v>2033.038690957651</v>
       </c>
       <c r="AC21" t="n">
-        <v>1734.345981166602</v>
+        <v>1839.008331680376</v>
       </c>
       <c r="AD21" t="n">
-        <v>1401309.595442706</v>
+        <v>1485874.242663721</v>
       </c>
       <c r="AE21" t="n">
-        <v>1917333.609900925</v>
+        <v>2033038.690957651</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216685172165688e-06</v>
+        <v>2.266592194524948e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.58951822916667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1734345.981166602</v>
+        <v>1839008.331680376</v>
       </c>
     </row>
     <row r="22">
@@ -24958,28 +24958,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1390.689525281643</v>
+        <v>1475.254172502658</v>
       </c>
       <c r="AB22" t="n">
-        <v>1902.802761382129</v>
+        <v>2018.507842438856</v>
       </c>
       <c r="AC22" t="n">
-        <v>1721.201936436267</v>
+        <v>1825.86428695004</v>
       </c>
       <c r="AD22" t="n">
-        <v>1390689.525281643</v>
+        <v>1475254.172502658</v>
       </c>
       <c r="AE22" t="n">
-        <v>1902802.761382129</v>
+        <v>2018507.842438856</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.217814521025991e-06</v>
+        <v>2.268696085794618e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH22" t="n">
-        <v>1721201.936436267</v>
+        <v>1825864.28695004</v>
       </c>
     </row>
     <row r="23">
@@ -25064,28 +25064,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1379.699093793131</v>
+        <v>1464.263741014146</v>
       </c>
       <c r="AB23" t="n">
-        <v>1887.76516815593</v>
+        <v>2003.470249212656</v>
       </c>
       <c r="AC23" t="n">
-        <v>1707.599510002181</v>
+        <v>1812.261860515955</v>
       </c>
       <c r="AD23" t="n">
-        <v>1379699.093793131</v>
+        <v>1464263.741014146</v>
       </c>
       <c r="AE23" t="n">
-        <v>1887765.16815593</v>
+        <v>2003470.249212656</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220261443556646e-06</v>
+        <v>2.273254516878904e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1707599.510002181</v>
+        <v>1812261.860515955</v>
       </c>
     </row>
     <row r="24">
@@ -25170,28 +25170,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1370.185212579621</v>
+        <v>1454.749859800636</v>
       </c>
       <c r="AB24" t="n">
-        <v>1874.747856156789</v>
+        <v>1990.452937213516</v>
       </c>
       <c r="AC24" t="n">
-        <v>1695.824551990326</v>
+        <v>1800.4869025041</v>
       </c>
       <c r="AD24" t="n">
-        <v>1370185.212579621</v>
+        <v>1454749.859800636</v>
       </c>
       <c r="AE24" t="n">
-        <v>1874747.856156789</v>
+        <v>1990452.937213516</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.221390792416948e-06</v>
+        <v>2.275358408148575e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.54069010416667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1695824.551990326</v>
+        <v>1800486.9025041</v>
       </c>
     </row>
     <row r="25">
@@ -25276,28 +25276,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1364.870112265749</v>
+        <v>1437.512585756538</v>
       </c>
       <c r="AB25" t="n">
-        <v>1867.475501421673</v>
+        <v>1966.86813841152</v>
       </c>
       <c r="AC25" t="n">
-        <v>1689.246260584316</v>
+        <v>1779.153003798294</v>
       </c>
       <c r="AD25" t="n">
-        <v>1364870.112265749</v>
+        <v>1437512.585756538</v>
       </c>
       <c r="AE25" t="n">
-        <v>1867475.501421673</v>
+        <v>1966868.138411521</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.222237804062175e-06</v>
+        <v>2.276936326600828e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.53255208333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1689246.260584316</v>
+        <v>1779153.003798294</v>
       </c>
     </row>
     <row r="26">
@@ -25382,28 +25382,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1367.396070640764</v>
+        <v>1440.038544131552</v>
       </c>
       <c r="AB26" t="n">
-        <v>1870.931629107786</v>
+        <v>1970.324266097634</v>
       </c>
       <c r="AC26" t="n">
-        <v>1692.372540294772</v>
+        <v>1782.27928350875</v>
       </c>
       <c r="AD26" t="n">
-        <v>1367396.070640764</v>
+        <v>1440038.544131553</v>
       </c>
       <c r="AE26" t="n">
-        <v>1870931.629107786</v>
+        <v>1970324.266097634</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.2223319164672e-06</v>
+        <v>2.2771116508733e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.53092447916667</v>
       </c>
       <c r="AH26" t="n">
-        <v>1692372.540294772</v>
+        <v>1782279.28350875</v>
       </c>
     </row>
   </sheetData>
@@ -25679,28 +25679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2469.369724182067</v>
+        <v>2580.574559073158</v>
       </c>
       <c r="AB2" t="n">
-        <v>3378.700597529666</v>
+        <v>3530.85595863873</v>
       </c>
       <c r="AC2" t="n">
-        <v>3056.242154537378</v>
+        <v>3193.876021533579</v>
       </c>
       <c r="AD2" t="n">
-        <v>2469369.724182067</v>
+        <v>2580574.559073158</v>
       </c>
       <c r="AE2" t="n">
-        <v>3378700.597529666</v>
+        <v>3530855.95863873</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.480190184872099e-07</v>
+        <v>1.699851879517085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.54264322916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3056242.154537378</v>
+        <v>3193876.021533579</v>
       </c>
     </row>
     <row r="3">
@@ -25785,28 +25785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1603.151258093362</v>
+        <v>1680.994732025677</v>
       </c>
       <c r="AB3" t="n">
-        <v>2193.502277365251</v>
+        <v>2300.011152611139</v>
       </c>
       <c r="AC3" t="n">
-        <v>1984.157498613293</v>
+        <v>2080.501316291859</v>
       </c>
       <c r="AD3" t="n">
-        <v>1603151.258093362</v>
+        <v>1680994.732025676</v>
       </c>
       <c r="AE3" t="n">
-        <v>2193502.277365251</v>
+        <v>2300011.152611139</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097160876842139e-06</v>
+        <v>2.199256075600445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1984157.498613293</v>
+        <v>2080501.316291859</v>
       </c>
     </row>
     <row r="4">
@@ -25891,28 +25891,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1389.777308966405</v>
+        <v>1478.570495170135</v>
       </c>
       <c r="AB4" t="n">
-        <v>1901.554626775478</v>
+        <v>2023.045381418328</v>
       </c>
       <c r="AC4" t="n">
-        <v>1720.072922044707</v>
+        <v>1829.968769577788</v>
       </c>
       <c r="AD4" t="n">
-        <v>1389777.308966405</v>
+        <v>1478570.495170135</v>
       </c>
       <c r="AE4" t="n">
-        <v>1901554.626775478</v>
+        <v>2023045.381418328</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185332862675963e-06</v>
+        <v>2.375996587986301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.98111979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1720072.922044707</v>
+        <v>1829968.769577788</v>
       </c>
     </row>
     <row r="5">
@@ -25997,28 +25997,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1297.276183028808</v>
+        <v>1374.948975251979</v>
       </c>
       <c r="AB5" t="n">
-        <v>1774.990505405994</v>
+        <v>1881.265846407486</v>
       </c>
       <c r="AC5" t="n">
-        <v>1605.587902784865</v>
+        <v>1701.720474399553</v>
       </c>
       <c r="AD5" t="n">
-        <v>1297276.183028808</v>
+        <v>1374948.975251979</v>
       </c>
       <c r="AE5" t="n">
-        <v>1774990.505405994</v>
+        <v>1881265.846407486</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231251529663325e-06</v>
+        <v>2.468040434505956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.45865885416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1605587.902784865</v>
+        <v>1701720.474399553</v>
       </c>
     </row>
     <row r="6">
@@ -26103,28 +26103,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1236.684062731161</v>
+        <v>1303.407053174367</v>
       </c>
       <c r="AB6" t="n">
-        <v>1692.085693279067</v>
+        <v>1783.379032414049</v>
       </c>
       <c r="AC6" t="n">
-        <v>1530.595409569698</v>
+        <v>1613.175840548643</v>
       </c>
       <c r="AD6" t="n">
-        <v>1236684.062731161</v>
+        <v>1303407.053174367</v>
       </c>
       <c r="AE6" t="n">
-        <v>1692085.693279067</v>
+        <v>1783379.032414049</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259861608207556e-06</v>
+        <v>2.525389261273191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.154296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1530595.409569698</v>
+        <v>1613175.840548643</v>
       </c>
     </row>
     <row r="7">
@@ -26209,28 +26209,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1182.922241794324</v>
+        <v>1260.680285363515</v>
       </c>
       <c r="AB7" t="n">
-        <v>1618.526398069139</v>
+        <v>1724.918383723281</v>
       </c>
       <c r="AC7" t="n">
-        <v>1464.056510253487</v>
+        <v>1560.294594118887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1182922.241794324</v>
+        <v>1260680.285363515</v>
       </c>
       <c r="AE7" t="n">
-        <v>1618526.398069139</v>
+        <v>1724918.383723281</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.27757745755523e-06</v>
+        <v>2.56090063443155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.97037760416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1464056.510253487</v>
+        <v>1560294.594118887</v>
       </c>
     </row>
     <row r="8">
@@ -26315,28 +26315,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1145.276590054246</v>
+        <v>1223.034633623438</v>
       </c>
       <c r="AB8" t="n">
-        <v>1567.017956549425</v>
+        <v>1673.409942203567</v>
       </c>
       <c r="AC8" t="n">
-        <v>1417.463962099862</v>
+        <v>1513.702045965262</v>
       </c>
       <c r="AD8" t="n">
-        <v>1145276.590054246</v>
+        <v>1223034.633623438</v>
       </c>
       <c r="AE8" t="n">
-        <v>1567017.956549425</v>
+        <v>1673409.942203566</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.291627958762006e-06</v>
+        <v>2.589064826936455e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.83040364583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1417463.962099862</v>
+        <v>1513702.045965262</v>
       </c>
     </row>
     <row r="9">
@@ -26421,28 +26421,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1114.052812349589</v>
+        <v>1191.810855918781</v>
       </c>
       <c r="AB9" t="n">
-        <v>1524.296206398059</v>
+        <v>1630.688192052201</v>
       </c>
       <c r="AC9" t="n">
-        <v>1378.81951582259</v>
+        <v>1475.05759968799</v>
       </c>
       <c r="AD9" t="n">
-        <v>1114052.812349589</v>
+        <v>1191810.855918781</v>
       </c>
       <c r="AE9" t="n">
-        <v>1524296.206398059</v>
+        <v>1630688.192052201</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.301605850923339e-06</v>
+        <v>2.609065485381968e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.73111979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1378819.51582259</v>
+        <v>1475057.59968799</v>
       </c>
     </row>
     <row r="10">
@@ -26527,28 +26527,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1082.638771121999</v>
+        <v>1160.39681469119</v>
       </c>
       <c r="AB10" t="n">
-        <v>1481.314129300782</v>
+        <v>1587.706114954924</v>
       </c>
       <c r="AC10" t="n">
-        <v>1339.939587837753</v>
+        <v>1436.177671703153</v>
       </c>
       <c r="AD10" t="n">
-        <v>1082638.771121999</v>
+        <v>1160396.81469119</v>
       </c>
       <c r="AE10" t="n">
-        <v>1481314.129300782</v>
+        <v>1587706.114954924</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.30985288424036e-06</v>
+        <v>2.625596641852239e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.6513671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1339939.587837753</v>
+        <v>1436177.671703153</v>
       </c>
     </row>
     <row r="11">
@@ -26633,28 +26633,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1060.989265030165</v>
+        <v>1138.747308599356</v>
       </c>
       <c r="AB11" t="n">
-        <v>1451.692319957134</v>
+        <v>1558.084305611276</v>
       </c>
       <c r="AC11" t="n">
-        <v>1313.144842403392</v>
+        <v>1409.382926268793</v>
       </c>
       <c r="AD11" t="n">
-        <v>1060989.265030165</v>
+        <v>1138747.308599356</v>
       </c>
       <c r="AE11" t="n">
-        <v>1451692.319957135</v>
+        <v>1558084.305611276</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.314434569416482e-06</v>
+        <v>2.634780617669056e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.607421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1313144.842403393</v>
+        <v>1409382.926268793</v>
       </c>
     </row>
     <row r="12">
@@ -26739,28 +26739,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1061.867283674675</v>
+        <v>1139.625327243867</v>
       </c>
       <c r="AB12" t="n">
-        <v>1452.893663802002</v>
+        <v>1559.285649456144</v>
       </c>
       <c r="AC12" t="n">
-        <v>1314.231531677803</v>
+        <v>1410.469615543203</v>
       </c>
       <c r="AD12" t="n">
-        <v>1061867.283674676</v>
+        <v>1139625.327243867</v>
       </c>
       <c r="AE12" t="n">
-        <v>1452893.663802003</v>
+        <v>1559285.649456144</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.316063613034659e-06</v>
+        <v>2.638046031292813e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1314231.531677803</v>
+        <v>1410469.615543203</v>
       </c>
     </row>
     <row r="13">
@@ -26845,28 +26845,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1066.948243552557</v>
+        <v>1144.706287121749</v>
       </c>
       <c r="AB13" t="n">
-        <v>1459.84565726305</v>
+        <v>1566.237642917192</v>
       </c>
       <c r="AC13" t="n">
-        <v>1320.520036640112</v>
+        <v>1416.758120505513</v>
       </c>
       <c r="AD13" t="n">
-        <v>1066948.243552557</v>
+        <v>1144706.287121749</v>
       </c>
       <c r="AE13" t="n">
-        <v>1459845.657263051</v>
+        <v>1566237.642917192</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.315758167356251e-06</v>
+        <v>2.637433766238358e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.59440104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1320520.036640113</v>
+        <v>1416758.120505513</v>
       </c>
     </row>
   </sheetData>
@@ -27142,28 +27142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1783.574730950807</v>
+        <v>1879.211379812063</v>
       </c>
       <c r="AB2" t="n">
-        <v>2440.365632650661</v>
+        <v>2571.219914813804</v>
       </c>
       <c r="AC2" t="n">
-        <v>2207.460561745158</v>
+        <v>2325.82629487379</v>
       </c>
       <c r="AD2" t="n">
-        <v>1783574.730950807</v>
+        <v>1879211.379812063</v>
       </c>
       <c r="AE2" t="n">
-        <v>2440365.632650661</v>
+        <v>2571219.914813804</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.914275214936194e-07</v>
+        <v>2.07412837677664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.41048177083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2207460.561745158</v>
+        <v>2325826.29487379</v>
       </c>
     </row>
     <row r="3">
@@ -27248,28 +27248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1266.439827431158</v>
+        <v>1340.871319133242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1732.798843273292</v>
+        <v>1834.639293905746</v>
       </c>
       <c r="AC3" t="n">
-        <v>1567.42295366974</v>
+        <v>1659.543894627802</v>
       </c>
       <c r="AD3" t="n">
-        <v>1266439.827431158</v>
+        <v>1340871.319133241</v>
       </c>
       <c r="AE3" t="n">
-        <v>1732798.843273292</v>
+        <v>1834639.293905746</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.206088337015986e-06</v>
+        <v>2.523212227289682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.3115234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1567422.95366974</v>
+        <v>1659543.894627802</v>
       </c>
     </row>
     <row r="4">
@@ -27354,28 +27354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1122.209509244311</v>
+        <v>1196.555660091823</v>
       </c>
       <c r="AB4" t="n">
-        <v>1535.456558937487</v>
+        <v>1637.180242447744</v>
       </c>
       <c r="AC4" t="n">
-        <v>1388.914739979308</v>
+        <v>1480.930057905432</v>
       </c>
       <c r="AD4" t="n">
-        <v>1122209.509244311</v>
+        <v>1196555.660091823</v>
       </c>
       <c r="AE4" t="n">
-        <v>1535456.558937487</v>
+        <v>1637180.242447744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.281919603368996e-06</v>
+        <v>2.681855978829615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.46516927083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1388914.739979309</v>
+        <v>1480930.057905432</v>
       </c>
     </row>
     <row r="5">
@@ -27460,28 +27460,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1050.909652929435</v>
+        <v>1114.781236479218</v>
       </c>
       <c r="AB5" t="n">
-        <v>1437.900949999814</v>
+        <v>1525.292868428022</v>
       </c>
       <c r="AC5" t="n">
-        <v>1300.669701438489</v>
+        <v>1379.721057827237</v>
       </c>
       <c r="AD5" t="n">
-        <v>1050909.652929435</v>
+        <v>1114781.236479218</v>
       </c>
       <c r="AE5" t="n">
-        <v>1437900.949999814</v>
+        <v>1525292.868428022</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320100380833449e-06</v>
+        <v>2.761732553031539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.076171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1300669.701438489</v>
+        <v>1379721.057827237</v>
       </c>
     </row>
     <row r="6">
@@ -27566,28 +27566,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>983.8373898169883</v>
+        <v>1058.268792010521</v>
       </c>
       <c r="AB6" t="n">
-        <v>1346.129720589953</v>
+        <v>1447.970048752859</v>
       </c>
       <c r="AC6" t="n">
-        <v>1217.656989361777</v>
+        <v>1309.777819538612</v>
       </c>
       <c r="AD6" t="n">
-        <v>983837.3898169884</v>
+        <v>1058268.792010521</v>
       </c>
       <c r="AE6" t="n">
-        <v>1346129.720589953</v>
+        <v>1447970.048752859</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34417548217909e-06</v>
+        <v>2.812099170653309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.841796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1217656.989361777</v>
+        <v>1309777.819538612</v>
       </c>
     </row>
     <row r="7">
@@ -27672,28 +27672,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>945.2311613424191</v>
+        <v>1019.662563535952</v>
       </c>
       <c r="AB7" t="n">
-        <v>1293.306975604452</v>
+        <v>1395.147303767358</v>
       </c>
       <c r="AC7" t="n">
-        <v>1169.875573020503</v>
+        <v>1261.99640319734</v>
       </c>
       <c r="AD7" t="n">
-        <v>945231.1613424191</v>
+        <v>1019662.563535952</v>
       </c>
       <c r="AE7" t="n">
-        <v>1293306.975604452</v>
+        <v>1395147.303767358</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358493273728259e-06</v>
+        <v>2.84205288597903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.70670572916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1169875.573020503</v>
+        <v>1261996.40319734</v>
       </c>
     </row>
     <row r="8">
@@ -27778,28 +27778,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>940.4794825801848</v>
+        <v>1014.910884773717</v>
       </c>
       <c r="AB8" t="n">
-        <v>1286.805519092691</v>
+        <v>1388.645847255597</v>
       </c>
       <c r="AC8" t="n">
-        <v>1163.994606393373</v>
+        <v>1256.115436570209</v>
       </c>
       <c r="AD8" t="n">
-        <v>940479.4825801848</v>
+        <v>1014910.884773717</v>
       </c>
       <c r="AE8" t="n">
-        <v>1286805.519092691</v>
+        <v>1388645.847255597</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360720485747019e-06</v>
+        <v>2.846712352807475e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.685546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1163994.606393373</v>
+        <v>1256115.436570209</v>
       </c>
     </row>
     <row r="9">
@@ -27884,28 +27884,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>946.5674648778667</v>
+        <v>1020.998867071399</v>
       </c>
       <c r="AB9" t="n">
-        <v>1295.135365055203</v>
+        <v>1396.975693218108</v>
       </c>
       <c r="AC9" t="n">
-        <v>1171.529463548235</v>
+        <v>1263.650293725071</v>
       </c>
       <c r="AD9" t="n">
-        <v>946567.4648778667</v>
+        <v>1020998.867071399</v>
       </c>
       <c r="AE9" t="n">
-        <v>1295135.365055203</v>
+        <v>1396975.693218108</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.360508370316661e-06</v>
+        <v>2.846268594061909e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1171529.463548235</v>
+        <v>1263650.293725071</v>
       </c>
     </row>
   </sheetData>
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1380.785870995756</v>
+        <v>1462.823701272888</v>
       </c>
       <c r="AB2" t="n">
-        <v>1889.252144669788</v>
+        <v>2001.499923308597</v>
       </c>
       <c r="AC2" t="n">
-        <v>1708.944571564542</v>
+        <v>1810.479579750809</v>
       </c>
       <c r="AD2" t="n">
-        <v>1380785.870995756</v>
+        <v>1462823.701272888</v>
       </c>
       <c r="AE2" t="n">
-        <v>1889252.144669788</v>
+        <v>2001499.923308597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108637975016681e-06</v>
+        <v>2.410019058672396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1708944.571564542</v>
+        <v>1810479.579750809</v>
       </c>
     </row>
     <row r="3">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1028.620070019807</v>
+        <v>1100.477766440065</v>
       </c>
       <c r="AB3" t="n">
-        <v>1407.403359315864</v>
+        <v>1505.72222969589</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.082758005779</v>
+        <v>1362.018213388136</v>
       </c>
       <c r="AD3" t="n">
-        <v>1028620.070019807</v>
+        <v>1100477.766440065</v>
       </c>
       <c r="AE3" t="n">
-        <v>1407403.359315865</v>
+        <v>1505722.22969589</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295696633839387e-06</v>
+        <v>2.816657603455815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273082.758005779</v>
+        <v>1362018.213388136</v>
       </c>
     </row>
     <row r="4">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>923.8803147829977</v>
+        <v>985.4727155089128</v>
       </c>
       <c r="AB4" t="n">
-        <v>1264.09380540898</v>
+        <v>1348.367245347122</v>
       </c>
       <c r="AC4" t="n">
-        <v>1143.450466787545</v>
+        <v>1219.680967896507</v>
       </c>
       <c r="AD4" t="n">
-        <v>923880.3147829977</v>
+        <v>985472.7155089128</v>
       </c>
       <c r="AE4" t="n">
-        <v>1264093.80540898</v>
+        <v>1348367.245347122</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360755745089747e-06</v>
+        <v>2.958086727829167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.12337239583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1143450.466787545</v>
+        <v>1219680.967896507</v>
       </c>
     </row>
     <row r="5">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>852.216245031035</v>
+        <v>923.9886005967213</v>
       </c>
       <c r="AB5" t="n">
-        <v>1166.039863578721</v>
+        <v>1264.24196683655</v>
       </c>
       <c r="AC5" t="n">
-        <v>1054.754655545995</v>
+        <v>1143.584487896413</v>
       </c>
       <c r="AD5" t="n">
-        <v>852216.245031035</v>
+        <v>923988.6005967213</v>
       </c>
       <c r="AE5" t="n">
-        <v>1166039.863578721</v>
+        <v>1264241.96683655</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.391804191099615e-06</v>
+        <v>3.025581571332808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.83040364583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1054754.655545995</v>
+        <v>1143584.487896413</v>
       </c>
     </row>
     <row r="6">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>850.5262976573598</v>
+        <v>922.298653223046</v>
       </c>
       <c r="AB6" t="n">
-        <v>1163.727603026843</v>
+        <v>1261.929706284671</v>
       </c>
       <c r="AC6" t="n">
-        <v>1052.663073895909</v>
+        <v>1141.492906246327</v>
       </c>
       <c r="AD6" t="n">
-        <v>850526.2976573599</v>
+        <v>922298.653223046</v>
       </c>
       <c r="AE6" t="n">
-        <v>1163727.603026843</v>
+        <v>1261929.706284671</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394546986683526e-06</v>
+        <v>3.03154401333843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.80436197916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1052663.073895909</v>
+        <v>1141492.906246328</v>
       </c>
     </row>
   </sheetData>
@@ -53131,28 +53131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.4100895973635</v>
+        <v>833.9114796386269</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.004340330848</v>
+        <v>1140.994476019574</v>
       </c>
       <c r="AC2" t="n">
-        <v>949.7933997800185</v>
+        <v>1032.09956462407</v>
       </c>
       <c r="AD2" t="n">
-        <v>767410.0895973635</v>
+        <v>833911.4796386269</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050004.340330848</v>
+        <v>1140994.476019574</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361356933268151e-06</v>
+        <v>3.238024172757369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.07877604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>949793.3997800185</v>
+        <v>1032099.56462407</v>
       </c>
     </row>
     <row r="3">
@@ -53237,28 +53237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.1982546155594</v>
+        <v>743.6143038022514</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.5725278434693</v>
+        <v>1017.445896409997</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.1417462387984</v>
+        <v>920.3422880509105</v>
       </c>
       <c r="AD3" t="n">
-        <v>677198.2546155595</v>
+        <v>743614.3038022514</v>
       </c>
       <c r="AE3" t="n">
-        <v>926572.5278434693</v>
+        <v>1017445.896409997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436837410235964e-06</v>
+        <v>3.417556522444893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33821614583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>838141.7462387984</v>
+        <v>920342.2880509105</v>
       </c>
     </row>
   </sheetData>
@@ -53534,28 +53534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3300.815316989067</v>
+        <v>3438.923710893766</v>
       </c>
       <c r="AB2" t="n">
-        <v>4516.321138399022</v>
+        <v>4705.287135851766</v>
       </c>
       <c r="AC2" t="n">
-        <v>4085.289787646577</v>
+        <v>4256.221135517866</v>
       </c>
       <c r="AD2" t="n">
-        <v>3300815.316989067</v>
+        <v>3438923.710893766</v>
       </c>
       <c r="AE2" t="n">
-        <v>4516321.138399022</v>
+        <v>4705287.135851766</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.295148774354646e-07</v>
+        <v>1.415680664070876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4085289.787646577</v>
+        <v>4256221.135517866</v>
       </c>
     </row>
     <row r="3">
@@ -53640,28 +53640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1937.276783123114</v>
+        <v>2040.815408124353</v>
       </c>
       <c r="AB3" t="n">
-        <v>2650.667561288785</v>
+        <v>2792.333675817235</v>
       </c>
       <c r="AC3" t="n">
-        <v>2397.69156947467</v>
+        <v>2525.837268862166</v>
       </c>
       <c r="AD3" t="n">
-        <v>1937276.783123114</v>
+        <v>2040815.408124353</v>
       </c>
       <c r="AE3" t="n">
-        <v>2650667.561288785</v>
+        <v>2792333.675817235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005150965710554e-06</v>
+        <v>1.950574046729404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94563802083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2397691.56947467</v>
+        <v>2525837.268862166</v>
       </c>
     </row>
     <row r="4">
@@ -53746,28 +53746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1658.03965821019</v>
+        <v>1738.617200972245</v>
       </c>
       <c r="AB4" t="n">
-        <v>2268.603007910408</v>
+        <v>2378.852756747749</v>
       </c>
       <c r="AC4" t="n">
-        <v>2052.090720839757</v>
+        <v>2151.818388384557</v>
       </c>
       <c r="AD4" t="n">
-        <v>1658039.65821019</v>
+        <v>1738617.200972245</v>
       </c>
       <c r="AE4" t="n">
-        <v>2268603.007910408</v>
+        <v>2378852.75674775</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105400175379737e-06</v>
+        <v>2.145115477078237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2052090.720839757</v>
+        <v>2151818.388384557</v>
       </c>
     </row>
     <row r="5">
@@ -53852,28 +53852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1526.385206981852</v>
+        <v>1607.048001089927</v>
       </c>
       <c r="AB5" t="n">
-        <v>2088.467579555327</v>
+        <v>2198.833973045319</v>
       </c>
       <c r="AC5" t="n">
-        <v>1889.147164945224</v>
+        <v>1988.980344740737</v>
       </c>
       <c r="AD5" t="n">
-        <v>1526385.206981851</v>
+        <v>1607048.001089927</v>
       </c>
       <c r="AE5" t="n">
-        <v>2088467.579555327</v>
+        <v>2198833.973045319</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157592789451119e-06</v>
+        <v>2.246399325884604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.84602864583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1889147.164945224</v>
+        <v>1988980.344740737</v>
       </c>
     </row>
     <row r="6">
@@ -53958,28 +53958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1452.168059534289</v>
+        <v>1532.660261441771</v>
       </c>
       <c r="AB6" t="n">
-        <v>1986.920404188111</v>
+        <v>2097.053385903255</v>
       </c>
       <c r="AC6" t="n">
-        <v>1797.291509472699</v>
+        <v>1896.91355398556</v>
       </c>
       <c r="AD6" t="n">
-        <v>1452168.059534289</v>
+        <v>1532660.261441771</v>
       </c>
       <c r="AE6" t="n">
-        <v>1986920.40418811</v>
+        <v>2097053.385903255</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.190188554088151e-06</v>
+        <v>2.309653955988202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.466796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1797291.509472699</v>
+        <v>1896913.55398556</v>
       </c>
     </row>
     <row r="7">
@@ -54064,28 +54064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1403.898389444451</v>
+        <v>1484.390591351934</v>
       </c>
       <c r="AB7" t="n">
-        <v>1920.875712063643</v>
+        <v>2031.008693778788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1737.550030070283</v>
+        <v>1837.172074583144</v>
       </c>
       <c r="AD7" t="n">
-        <v>1403898.389444451</v>
+        <v>1484390.591351934</v>
       </c>
       <c r="AE7" t="n">
-        <v>1920875.712063643</v>
+        <v>2031008.693778788</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.211164076347028e-06</v>
+        <v>2.350358597112271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.23404947916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1737550.030070283</v>
+        <v>1837172.074583144</v>
       </c>
     </row>
     <row r="8">
@@ -54170,28 +54170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1361.729632704069</v>
+        <v>1430.869260019542</v>
       </c>
       <c r="AB8" t="n">
-        <v>1863.178558737202</v>
+        <v>1957.778447055315</v>
       </c>
       <c r="AC8" t="n">
-        <v>1685.359412078854</v>
+        <v>1770.930819827663</v>
       </c>
       <c r="AD8" t="n">
-        <v>1361729.632704069</v>
+        <v>1430869.260019541</v>
       </c>
       <c r="AE8" t="n">
-        <v>1863178.558737202</v>
+        <v>1957778.447055315</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.227708150241352e-06</v>
+        <v>2.382463666167873e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.05501302083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1685359.412078854</v>
+        <v>1770930.819827663</v>
       </c>
     </row>
     <row r="9">
@@ -54276,28 +54276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1318.167003883407</v>
+        <v>1398.74445713691</v>
       </c>
       <c r="AB9" t="n">
-        <v>1803.574248137226</v>
+        <v>1913.82387450502</v>
       </c>
       <c r="AC9" t="n">
-        <v>1631.443653227364</v>
+        <v>1731.171209990938</v>
       </c>
       <c r="AD9" t="n">
-        <v>1318167.003883407</v>
+        <v>1398744.45713691</v>
       </c>
       <c r="AE9" t="n">
-        <v>1803574.248137226</v>
+        <v>1913823.87450502</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.239722299140802e-06</v>
+        <v>2.40577806155349e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.92805989583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1631443.653227364</v>
+        <v>1731171.209990938</v>
       </c>
     </row>
     <row r="10">
@@ -54382,28 +54382,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1288.742801056758</v>
+        <v>1369.320254310261</v>
       </c>
       <c r="AB10" t="n">
-        <v>1763.314755725591</v>
+        <v>1873.564382093385</v>
       </c>
       <c r="AC10" t="n">
-        <v>1595.026470266944</v>
+        <v>1694.754027030518</v>
       </c>
       <c r="AD10" t="n">
-        <v>1288742.801056758</v>
+        <v>1369320.254310261</v>
       </c>
       <c r="AE10" t="n">
-        <v>1763314.755725591</v>
+        <v>1873564.382093385</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249668438803462e-06</v>
+        <v>2.425079323307156e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1595026.470266944</v>
+        <v>1694754.027030518</v>
       </c>
     </row>
     <row r="11">
@@ -54488,28 +54488,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1264.307615496384</v>
+        <v>1344.885068749888</v>
       </c>
       <c r="AB11" t="n">
-        <v>1729.881456837584</v>
+        <v>1840.131083205377</v>
       </c>
       <c r="AC11" t="n">
-        <v>1564.783998500877</v>
+        <v>1664.511555264451</v>
       </c>
       <c r="AD11" t="n">
-        <v>1264307.615496384</v>
+        <v>1344885.068749888</v>
       </c>
       <c r="AE11" t="n">
-        <v>1729881.456837584</v>
+        <v>1840131.083205377</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.256364849665451e-06</v>
+        <v>2.438074232210614e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.75716145833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1564783.998500877</v>
+        <v>1664511.555264451</v>
       </c>
     </row>
     <row r="12">
@@ -54594,28 +54594,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1240.574690025358</v>
+        <v>1321.152143278861</v>
       </c>
       <c r="AB12" t="n">
-        <v>1697.409021185348</v>
+        <v>1807.658647553142</v>
       </c>
       <c r="AC12" t="n">
-        <v>1535.410686531942</v>
+        <v>1635.138243295516</v>
       </c>
       <c r="AD12" t="n">
-        <v>1240574.690025358</v>
+        <v>1321152.143278861</v>
       </c>
       <c r="AE12" t="n">
-        <v>1697409.021185348</v>
+        <v>1807658.647553142</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.263061260527439e-06</v>
+        <v>2.451069141114073e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1535410.686531942</v>
+        <v>1635138.243295516</v>
       </c>
     </row>
     <row r="13">
@@ -54700,28 +54700,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1216.671972337957</v>
+        <v>1297.24942559146</v>
       </c>
       <c r="AB13" t="n">
-        <v>1664.704268331967</v>
+        <v>1774.95389469976</v>
       </c>
       <c r="AC13" t="n">
-        <v>1505.827229389478</v>
+        <v>1605.554786153052</v>
       </c>
       <c r="AD13" t="n">
-        <v>1216671.972337957</v>
+        <v>1297249.42559146</v>
       </c>
       <c r="AE13" t="n">
-        <v>1664704.268331967</v>
+        <v>1774953.89469976</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.268378998564901e-06</v>
+        <v>2.461388627596231e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.63671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1505827.229389478</v>
+        <v>1605554.786153052</v>
       </c>
     </row>
     <row r="14">
@@ -54806,28 +54806,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1198.612195859035</v>
+        <v>1279.189649112538</v>
       </c>
       <c r="AB14" t="n">
-        <v>1639.994085412398</v>
+        <v>1750.243711780192</v>
       </c>
       <c r="AC14" t="n">
-        <v>1483.475351646794</v>
+        <v>1583.202908410367</v>
       </c>
       <c r="AD14" t="n">
-        <v>1198612.195859035</v>
+        <v>1279189.649112538</v>
       </c>
       <c r="AE14" t="n">
-        <v>1639994.085412398</v>
+        <v>1750243.711780192</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.272022633886865e-06</v>
+        <v>2.468459386852525e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.60091145833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1483475.351646794</v>
+        <v>1583202.908410367</v>
       </c>
     </row>
     <row r="15">
@@ -54912,28 +54912,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1178.157351853782</v>
+        <v>1258.734805107285</v>
       </c>
       <c r="AB15" t="n">
-        <v>1612.006865440381</v>
+        <v>1722.256491808175</v>
       </c>
       <c r="AC15" t="n">
-        <v>1458.159192668596</v>
+        <v>1557.886749432171</v>
       </c>
       <c r="AD15" t="n">
-        <v>1178157.351853782</v>
+        <v>1258734.805107285</v>
       </c>
       <c r="AE15" t="n">
-        <v>1612006.865440381</v>
+        <v>1722256.491808176</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.275764745839153e-06</v>
+        <v>2.47572124771034e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5634765625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1458159.192668597</v>
+        <v>1557886.749432171</v>
       </c>
     </row>
     <row r="16">
@@ -55018,28 +55018,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1177.347301378828</v>
+        <v>1257.924754632331</v>
       </c>
       <c r="AB16" t="n">
-        <v>1610.898518643644</v>
+        <v>1721.148145011438</v>
       </c>
       <c r="AC16" t="n">
-        <v>1457.156624934565</v>
+        <v>1556.884181698139</v>
       </c>
       <c r="AD16" t="n">
-        <v>1177347.301378828</v>
+        <v>1257924.754632331</v>
       </c>
       <c r="AE16" t="n">
-        <v>1610898.518643644</v>
+        <v>1721148.145011438</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.276158652360446e-06</v>
+        <v>2.476485654116425e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1457156.624934565</v>
+        <v>1556884.181698139</v>
       </c>
     </row>
     <row r="17">
@@ -55124,28 +55124,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1180.387161914448</v>
+        <v>1260.964615167951</v>
       </c>
       <c r="AB17" t="n">
-        <v>1615.057789937663</v>
+        <v>1725.307416305457</v>
       </c>
       <c r="AC17" t="n">
-        <v>1460.918941213856</v>
+        <v>1560.64649797743</v>
       </c>
       <c r="AD17" t="n">
-        <v>1180387.161914448</v>
+        <v>1260964.615167951</v>
       </c>
       <c r="AE17" t="n">
-        <v>1615057.789937663</v>
+        <v>1725307.416305457</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.27655255888174e-06</v>
+        <v>2.477250060522511e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.55533854166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1460918.941213856</v>
+        <v>1560646.49797743</v>
       </c>
     </row>
     <row r="18">
@@ -55230,28 +55230,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1186.261415165802</v>
+        <v>1266.838868419306</v>
       </c>
       <c r="AB18" t="n">
-        <v>1623.095202389929</v>
+        <v>1733.344828757723</v>
       </c>
       <c r="AC18" t="n">
-        <v>1468.189274302258</v>
+        <v>1567.916831065832</v>
       </c>
       <c r="AD18" t="n">
-        <v>1186261.415165802</v>
+        <v>1266838.868419306</v>
       </c>
       <c r="AE18" t="n">
-        <v>1623095.202389929</v>
+        <v>1733344.828757723</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.276454082251417e-06</v>
+        <v>2.47705895892099e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.55696614583333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1468189.274302258</v>
+        <v>1567916.831065831</v>
       </c>
     </row>
   </sheetData>
@@ -55527,28 +55527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4784.956824696444</v>
+        <v>4952.601772845042</v>
       </c>
       <c r="AB2" t="n">
-        <v>6546.989024946647</v>
+        <v>6776.368238976704</v>
       </c>
       <c r="AC2" t="n">
-        <v>5922.1535811623</v>
+        <v>6129.641164941068</v>
       </c>
       <c r="AD2" t="n">
-        <v>4784956.824696444</v>
+        <v>4952601.772845043</v>
       </c>
       <c r="AE2" t="n">
-        <v>6546989.024946647</v>
+        <v>6776368.238976704</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965113194248579e-07</v>
+        <v>1.11928920442506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.89192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5922153.5811623</v>
+        <v>6129641.164941069</v>
       </c>
     </row>
     <row r="3">
@@ -55633,28 +55633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2447.289614802103</v>
+        <v>2555.000498938632</v>
       </c>
       <c r="AB3" t="n">
-        <v>3348.48961777032</v>
+        <v>3495.864401314765</v>
       </c>
       <c r="AC3" t="n">
-        <v>3028.914468284889</v>
+        <v>3162.224009329654</v>
       </c>
       <c r="AD3" t="n">
-        <v>2447289.614802103</v>
+        <v>2555000.498938632</v>
       </c>
       <c r="AE3" t="n">
-        <v>3348489.61777032</v>
+        <v>3495864.401314765</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.987525781534884e-07</v>
+        <v>1.686412353660475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.18587239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3028914.468284889</v>
+        <v>3162224.009329654</v>
       </c>
     </row>
     <row r="4">
@@ -55739,28 +55739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2021.916091882113</v>
+        <v>2117.640145314517</v>
       </c>
       <c r="AB4" t="n">
-        <v>2766.474797555615</v>
+        <v>2897.448670509019</v>
       </c>
       <c r="AC4" t="n">
-        <v>2502.446325648672</v>
+        <v>2620.920235990389</v>
       </c>
       <c r="AD4" t="n">
-        <v>2021916.091882113</v>
+        <v>2117640.145314517</v>
       </c>
       <c r="AE4" t="n">
-        <v>2766474.797555615</v>
+        <v>2897448.670509019</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013006416617938e-06</v>
+        <v>1.9007973683165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.24576822916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2502446.325648671</v>
+        <v>2620920.235990389</v>
       </c>
     </row>
     <row r="5">
@@ -55845,28 +55845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1839.863740995637</v>
+        <v>1923.686304578487</v>
       </c>
       <c r="AB5" t="n">
-        <v>2517.382739489858</v>
+        <v>2632.072468974428</v>
       </c>
       <c r="AC5" t="n">
-        <v>2277.127264001811</v>
+        <v>2380.87116667242</v>
       </c>
       <c r="AD5" t="n">
-        <v>1839863.740995637</v>
+        <v>1923686.304578487</v>
       </c>
       <c r="AE5" t="n">
-        <v>2517382.739489858</v>
+        <v>2632072.468974428</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.073075087504978e-06</v>
+        <v>2.013509755589975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.39453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2277127.26400181</v>
+        <v>2380871.16667242</v>
       </c>
     </row>
     <row r="6">
@@ -55951,28 +55951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1730.078891718488</v>
+        <v>1825.802855642341</v>
       </c>
       <c r="AB6" t="n">
-        <v>2367.170265343141</v>
+        <v>2498.144015826997</v>
       </c>
       <c r="AC6" t="n">
-        <v>2141.250857563125</v>
+        <v>2259.724657123615</v>
       </c>
       <c r="AD6" t="n">
-        <v>1730078.891718488</v>
+        <v>1825802.855642341</v>
       </c>
       <c r="AE6" t="n">
-        <v>2367170.265343141</v>
+        <v>2498144.015826997</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.110938278158894e-06</v>
+        <v>2.084555952307379e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90299479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2141250.857563125</v>
+        <v>2259724.657123615</v>
       </c>
     </row>
     <row r="7">
@@ -56057,28 +56057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1665.422497555745</v>
+        <v>1749.330312484616</v>
       </c>
       <c r="AB7" t="n">
-        <v>2278.704534410881</v>
+        <v>2393.5109085481</v>
       </c>
       <c r="AC7" t="n">
-        <v>2061.228171828606</v>
+        <v>2165.077586749928</v>
       </c>
       <c r="AD7" t="n">
-        <v>1665422.497555745</v>
+        <v>1749330.312484616</v>
       </c>
       <c r="AE7" t="n">
-        <v>2278704.53441088</v>
+        <v>2393510.9085481</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136370195690848e-06</v>
+        <v>2.132276204739118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.59212239583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2061228.171828606</v>
+        <v>2165077.586749928</v>
       </c>
     </row>
     <row r="8">
@@ -56163,28 +56163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1621.286521225582</v>
+        <v>1705.02374395386</v>
       </c>
       <c r="AB8" t="n">
-        <v>2218.315744454097</v>
+        <v>2332.88870681647</v>
       </c>
       <c r="AC8" t="n">
-        <v>2006.602803229099</v>
+        <v>2110.241082867769</v>
       </c>
       <c r="AD8" t="n">
-        <v>1621286.521225581</v>
+        <v>1705023.74395386</v>
       </c>
       <c r="AE8" t="n">
-        <v>2218315.744454097</v>
+        <v>2332888.70681647</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.154115600834413e-06</v>
+        <v>2.165573545055295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.38216145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2006602.803229099</v>
+        <v>2110241.08286777</v>
       </c>
     </row>
     <row r="9">
@@ -56269,28 +56269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1582.105135822222</v>
+        <v>1665.842358550501</v>
       </c>
       <c r="AB9" t="n">
-        <v>2164.706044384492</v>
+        <v>2279.279006746865</v>
       </c>
       <c r="AC9" t="n">
-        <v>1958.109537692451</v>
+        <v>2061.747817331121</v>
       </c>
       <c r="AD9" t="n">
-        <v>1582105.135822222</v>
+        <v>1665842.358550501</v>
       </c>
       <c r="AE9" t="n">
-        <v>2164706.044384492</v>
+        <v>2279279.006746865</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.169109044752505e-06</v>
+        <v>2.193707126712813e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.21126302083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1958109.537692451</v>
+        <v>2061747.817331122</v>
       </c>
     </row>
     <row r="10">
@@ -56375,28 +56375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1552.561279105821</v>
+        <v>1624.482352839118</v>
       </c>
       <c r="AB10" t="n">
-        <v>2124.282836242141</v>
+        <v>2222.688422257879</v>
       </c>
       <c r="AC10" t="n">
-        <v>1921.544263800877</v>
+        <v>2010.55815880038</v>
       </c>
       <c r="AD10" t="n">
-        <v>1552561.279105821</v>
+        <v>1624482.352839118</v>
       </c>
       <c r="AE10" t="n">
-        <v>2124282.836242142</v>
+        <v>2222688.422257879</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.179357727937024e-06</v>
+        <v>2.212937676200231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.09733072916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1921544.263800877</v>
+        <v>2010558.15880038</v>
       </c>
     </row>
     <row r="11">
@@ -56481,28 +56481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1512.548123774456</v>
+        <v>1596.370597848755</v>
       </c>
       <c r="AB11" t="n">
-        <v>2069.535071861941</v>
+        <v>2184.224678876963</v>
       </c>
       <c r="AC11" t="n">
-        <v>1872.021549214152</v>
+        <v>1975.765341103535</v>
       </c>
       <c r="AD11" t="n">
-        <v>1512548.123774456</v>
+        <v>1596370.597848755</v>
       </c>
       <c r="AE11" t="n">
-        <v>2069535.071861941</v>
+        <v>2184224.678876963</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.188942144618842e-06</v>
+        <v>2.230921801183834e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.99153645833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1872021.549214152</v>
+        <v>1975765.341103535</v>
       </c>
     </row>
     <row r="12">
@@ -56587,28 +56587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1492.471731580057</v>
+        <v>1576.294205654357</v>
       </c>
       <c r="AB12" t="n">
-        <v>2042.065666353652</v>
+        <v>2156.755273368674</v>
       </c>
       <c r="AC12" t="n">
-        <v>1847.173785214022</v>
+        <v>1950.917577103405</v>
       </c>
       <c r="AD12" t="n">
-        <v>1492471.731580057</v>
+        <v>1576294.205654357</v>
       </c>
       <c r="AE12" t="n">
-        <v>2042065.666353652</v>
+        <v>2156755.273368674</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.196249076148545e-06</v>
+        <v>2.244632470725789e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.91178385416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1847173.785214022</v>
+        <v>1950917.577103405</v>
       </c>
     </row>
     <row r="13">
@@ -56693,28 +56693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1469.445765180856</v>
+        <v>1553.268239255156</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010.560523292321</v>
+        <v>2125.250130307343</v>
       </c>
       <c r="AC13" t="n">
-        <v>1818.675448788719</v>
+        <v>1922.419240678101</v>
       </c>
       <c r="AD13" t="n">
-        <v>1469445.765180856</v>
+        <v>1553268.239255156</v>
       </c>
       <c r="AE13" t="n">
-        <v>2010560.523292321</v>
+        <v>2125250.130307343</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.202227474672848e-06</v>
+        <v>2.255850291260116e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.8466796875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1818675.448788719</v>
+        <v>1922419.240678101</v>
       </c>
     </row>
     <row r="14">
@@ -56799,28 +56799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1451.404061710938</v>
+        <v>1535.226535785238</v>
       </c>
       <c r="AB14" t="n">
-        <v>1985.875068660998</v>
+        <v>2100.56467567602</v>
       </c>
       <c r="AC14" t="n">
-        <v>1796.345939301156</v>
+        <v>1900.089731190538</v>
       </c>
       <c r="AD14" t="n">
-        <v>1451404.061710938</v>
+        <v>1535226.535785238</v>
       </c>
       <c r="AE14" t="n">
-        <v>1985875.068660998</v>
+        <v>2100564.67567602</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.207636501909122e-06</v>
+        <v>2.265999747934031e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.78971354166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1796345.939301156</v>
+        <v>1900089.731190538</v>
       </c>
     </row>
     <row r="15">
@@ -56905,28 +56905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1433.238266168325</v>
+        <v>1517.060740242624</v>
       </c>
       <c r="AB15" t="n">
-        <v>1961.019825781255</v>
+        <v>2075.709432796277</v>
       </c>
       <c r="AC15" t="n">
-        <v>1773.862845917303</v>
+        <v>1877.606637806686</v>
       </c>
       <c r="AD15" t="n">
-        <v>1433238.266168325</v>
+        <v>1517060.740242624</v>
       </c>
       <c r="AE15" t="n">
-        <v>1961019.825781255</v>
+        <v>2075709.432796277</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.212476157857367e-06</v>
+        <v>2.275080840747534e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.7392578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1773862.845917303</v>
+        <v>1877606.637806686</v>
       </c>
     </row>
     <row r="16">
@@ -57011,28 +57011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1417.373624550739</v>
+        <v>1501.196098625039</v>
       </c>
       <c r="AB16" t="n">
-        <v>1939.313123221483</v>
+        <v>2054.002730236505</v>
       </c>
       <c r="AC16" t="n">
-        <v>1754.227800584287</v>
+        <v>1857.97159247367</v>
       </c>
       <c r="AD16" t="n">
-        <v>1417373.624550739</v>
+        <v>1501196.098625039</v>
       </c>
       <c r="AE16" t="n">
-        <v>1939313.123221483</v>
+        <v>2054002.730236505</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.215797490370868e-06</v>
+        <v>2.281312963266604e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.70345052083333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1754227.800584287</v>
+        <v>1857971.59247367</v>
       </c>
     </row>
     <row r="17">
@@ -57117,28 +57117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1403.105637554098</v>
+        <v>1486.928111628398</v>
       </c>
       <c r="AB17" t="n">
-        <v>1919.791033953517</v>
+        <v>2034.48064096854</v>
       </c>
       <c r="AC17" t="n">
-        <v>1736.568872116632</v>
+        <v>1840.312664006015</v>
       </c>
       <c r="AD17" t="n">
-        <v>1403105.637554098</v>
+        <v>1486928.111628398</v>
       </c>
       <c r="AE17" t="n">
-        <v>1919791.033953517</v>
+        <v>2034480.64096854</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.219593298957727e-06</v>
+        <v>2.288435389002685e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.66438802083333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1736568.872116632</v>
+        <v>1840312.664006015</v>
       </c>
     </row>
     <row r="18">
@@ -57223,28 +57223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1385.305166040661</v>
+        <v>1469.12764011496</v>
       </c>
       <c r="AB18" t="n">
-        <v>1895.435643527452</v>
+        <v>2010.125250542475</v>
       </c>
       <c r="AC18" t="n">
-        <v>1714.537925969826</v>
+        <v>1818.281717859208</v>
       </c>
       <c r="AD18" t="n">
-        <v>1385305.166040661</v>
+        <v>1469127.64011496</v>
       </c>
       <c r="AE18" t="n">
-        <v>1895435.643527452</v>
+        <v>2010125.250542474</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.222724841041886e-06</v>
+        <v>2.294311390234951e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.6318359375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1714537.925969826</v>
+        <v>1818281.717859208</v>
       </c>
     </row>
     <row r="19">
@@ -57329,28 +57329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1365.743322337219</v>
+        <v>1449.565796411519</v>
       </c>
       <c r="AB19" t="n">
-        <v>1868.670265964768</v>
+        <v>1983.35987297979</v>
       </c>
       <c r="AC19" t="n">
-        <v>1690.326998476281</v>
+        <v>1794.070790365663</v>
       </c>
       <c r="AD19" t="n">
-        <v>1365743.322337219</v>
+        <v>1449565.796411519</v>
       </c>
       <c r="AE19" t="n">
-        <v>1868670.265964768</v>
+        <v>1983359.87297979</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.225192116623344e-06</v>
+        <v>2.298940966963403e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.60579427083333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1690326.998476281</v>
+        <v>1794070.790365663</v>
       </c>
     </row>
     <row r="20">
@@ -57435,28 +57435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1355.023458564744</v>
+        <v>1438.845932639043</v>
       </c>
       <c r="AB20" t="n">
-        <v>1854.002875424255</v>
+        <v>1968.692482439277</v>
       </c>
       <c r="AC20" t="n">
-        <v>1677.059443103142</v>
+        <v>1780.803234992525</v>
       </c>
       <c r="AD20" t="n">
-        <v>1355023.458564744</v>
+        <v>1438845.932639044</v>
       </c>
       <c r="AE20" t="n">
-        <v>1854002.875424255</v>
+        <v>1968692.482439277</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>2.302324119188042e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.587890625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1677059.443103142</v>
+        <v>1780803.234992525</v>
       </c>
     </row>
     <row r="21">
@@ -57541,28 +57541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1339.48948784534</v>
+        <v>1423.31196191964</v>
       </c>
       <c r="AB21" t="n">
-        <v>1832.748611375545</v>
+        <v>1947.438218390567</v>
       </c>
       <c r="AC21" t="n">
-        <v>1657.833656184694</v>
+        <v>1761.577448074077</v>
       </c>
       <c r="AD21" t="n">
-        <v>1339489.48784534</v>
+        <v>1423311.961919639</v>
       </c>
       <c r="AE21" t="n">
-        <v>1832748.611375545</v>
+        <v>1947438.218390567</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229557296498231e-06</v>
+        <v>2.307131756559896e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.56184895833333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1657833.656184694</v>
+        <v>1761577.448074077</v>
       </c>
     </row>
     <row r="22">
@@ -57647,28 +57647,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1326.756365953132</v>
+        <v>1398.762691032451</v>
       </c>
       <c r="AB22" t="n">
-        <v>1815.326592256935</v>
+        <v>1913.848822925321</v>
       </c>
       <c r="AC22" t="n">
-        <v>1642.074370118807</v>
+        <v>1731.193777369022</v>
       </c>
       <c r="AD22" t="n">
-        <v>1326756.365953132</v>
+        <v>1398762.691032451</v>
       </c>
       <c r="AE22" t="n">
-        <v>1815326.592256935</v>
+        <v>1913848.822925321</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.232024572079689e-06</v>
+        <v>2.311761333288349e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.53580729166667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1642074.370118807</v>
+        <v>1731193.777369021</v>
       </c>
     </row>
     <row r="23">
@@ -57753,28 +57753,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1329.034791916884</v>
+        <v>1412.857265991184</v>
       </c>
       <c r="AB23" t="n">
-        <v>1818.4440351776</v>
+        <v>1933.133642192622</v>
       </c>
       <c r="AC23" t="n">
-        <v>1644.894288662482</v>
+        <v>1748.638080551865</v>
       </c>
       <c r="AD23" t="n">
-        <v>1329034.791916884</v>
+        <v>1412857.265991184</v>
       </c>
       <c r="AE23" t="n">
-        <v>1818444.0351776</v>
+        <v>1933133.642192622</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.231360305576989e-06</v>
+        <v>2.310514908784535e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5439453125</v>
       </c>
       <c r="AH23" t="n">
-        <v>1644894.288662482</v>
+        <v>1748638.080551865</v>
       </c>
     </row>
     <row r="24">
@@ -57859,28 +57859,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1330.31206658657</v>
+        <v>1402.318391665888</v>
       </c>
       <c r="AB24" t="n">
-        <v>1820.191658730045</v>
+        <v>1918.713889398431</v>
       </c>
       <c r="AC24" t="n">
-        <v>1646.475121475886</v>
+        <v>1735.594528726101</v>
       </c>
       <c r="AD24" t="n">
-        <v>1330312.06658657</v>
+        <v>1402318.391665888</v>
       </c>
       <c r="AE24" t="n">
-        <v>1820191.658730045</v>
+        <v>1918713.889398431</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.232593943367718e-06</v>
+        <v>2.312829697148761e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.53092447916667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1646475.121475887</v>
+        <v>1735594.528726101</v>
       </c>
     </row>
   </sheetData>
@@ -58156,28 +58156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.2067125071954</v>
+        <v>657.3175745039193</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.3373974335075</v>
+        <v>899.3709042410175</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.0497580995362</v>
+        <v>813.5362074152459</v>
       </c>
       <c r="AD2" t="n">
-        <v>584206.7125071954</v>
+        <v>657317.5745039193</v>
       </c>
       <c r="AE2" t="n">
-        <v>799337.3974335075</v>
+        <v>899370.9042410174</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>3.555103142570634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96158854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>723049.7580995362</v>
+        <v>813536.2074152459</v>
       </c>
     </row>
     <row r="3">
@@ -58262,28 +58262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>594.7914106119977</v>
+        <v>667.9022726087217</v>
       </c>
       <c r="AB3" t="n">
-        <v>813.8198483444218</v>
+        <v>913.8533551519316</v>
       </c>
       <c r="AC3" t="n">
-        <v>736.1500242217602</v>
+        <v>826.63647353747</v>
       </c>
       <c r="AD3" t="n">
-        <v>594791.4106119977</v>
+        <v>667902.2726087216</v>
       </c>
       <c r="AE3" t="n">
-        <v>813819.8483444217</v>
+        <v>913853.3551519316</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>3.555103142570634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>736150.0242217602</v>
+        <v>826636.47353747</v>
       </c>
     </row>
   </sheetData>
@@ -58559,28 +58559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2004.373210522515</v>
+        <v>2101.613481945581</v>
       </c>
       <c r="AB2" t="n">
-        <v>2742.471853342109</v>
+        <v>2875.520282641155</v>
       </c>
       <c r="AC2" t="n">
-        <v>2480.734188742559</v>
+        <v>2601.084662683947</v>
       </c>
       <c r="AD2" t="n">
-        <v>2004373.210522515</v>
+        <v>2101613.481945581</v>
       </c>
       <c r="AE2" t="n">
-        <v>2742471.853342109</v>
+        <v>2875520.282641155</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.398749463898601e-07</v>
+        <v>1.935468929801277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2480734.188742558</v>
+        <v>2601084.662683947</v>
       </c>
     </row>
     <row r="3">
@@ -58665,28 +58665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1374.212700579739</v>
+        <v>1460.638935519911</v>
       </c>
       <c r="AB3" t="n">
-        <v>1880.258442918782</v>
+        <v>1998.510630420312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1700.809216085912</v>
+        <v>1807.775580780283</v>
       </c>
       <c r="AD3" t="n">
-        <v>1374212.700579739</v>
+        <v>1460638.935519911</v>
       </c>
       <c r="AE3" t="n">
-        <v>1880258.442918782</v>
+        <v>1998510.630420312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167710750140544e-06</v>
+        <v>2.404647431632344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.56705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1700809.216085912</v>
+        <v>1807775.580780284</v>
       </c>
     </row>
     <row r="4">
@@ -58771,28 +58771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1213.664246247836</v>
+        <v>1289.361875068237</v>
       </c>
       <c r="AB4" t="n">
-        <v>1660.588964803953</v>
+        <v>1764.161800099715</v>
       </c>
       <c r="AC4" t="n">
-        <v>1502.104684654313</v>
+        <v>1595.792673914835</v>
       </c>
       <c r="AD4" t="n">
-        <v>1213664.246247836</v>
+        <v>1289361.875068237</v>
       </c>
       <c r="AE4" t="n">
-        <v>1660588.964803953</v>
+        <v>1764161.800099715</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246721698597202e-06</v>
+        <v>2.567353370799448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.64420572916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1502104.684654313</v>
+        <v>1595792.673914835</v>
       </c>
     </row>
     <row r="5">
@@ -58877,28 +58877,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1137.900389105145</v>
+        <v>1213.427425724953</v>
       </c>
       <c r="AB5" t="n">
-        <v>1556.925512995845</v>
+        <v>1660.26493651676</v>
       </c>
       <c r="AC5" t="n">
-        <v>1408.334727194203</v>
+        <v>1501.811581172074</v>
       </c>
       <c r="AD5" t="n">
-        <v>1137900.389105145</v>
+        <v>1213427.425724953</v>
       </c>
       <c r="AE5" t="n">
-        <v>1556925.512995845</v>
+        <v>1660264.93651676</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287063267518195e-06</v>
+        <v>2.650428096353022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1408334.727194203</v>
+        <v>1501811.581172073</v>
       </c>
     </row>
     <row r="6">
@@ -58983,28 +58983,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1071.776238275699</v>
+        <v>1147.388526241527</v>
       </c>
       <c r="AB6" t="n">
-        <v>1466.451532639347</v>
+        <v>1569.907600812912</v>
       </c>
       <c r="AC6" t="n">
-        <v>1326.4954565419</v>
+        <v>1420.077822770483</v>
       </c>
       <c r="AD6" t="n">
-        <v>1071776.238275699</v>
+        <v>1147388.526241527</v>
       </c>
       <c r="AE6" t="n">
-        <v>1466451.532639347</v>
+        <v>1569907.600812912</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31298220299075e-06</v>
+        <v>2.703802531423712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1326495.4565419</v>
+        <v>1420077.822770483</v>
       </c>
     </row>
     <row r="7">
@@ -59089,28 +59089,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1027.995909057849</v>
+        <v>1103.608197023678</v>
       </c>
       <c r="AB7" t="n">
-        <v>1406.549354751675</v>
+        <v>1510.005422925239</v>
       </c>
       <c r="AC7" t="n">
-        <v>1272.310258438592</v>
+        <v>1365.892624667175</v>
       </c>
       <c r="AD7" t="n">
-        <v>1027995.909057849</v>
+        <v>1103608.197023678</v>
       </c>
       <c r="AE7" t="n">
-        <v>1406549.354751675</v>
+        <v>1510005.422925239</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.329913120517177e-06</v>
+        <v>2.738668089816663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.78971354166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1272310.258438592</v>
+        <v>1365892.624667175</v>
       </c>
     </row>
     <row r="8">
@@ -59195,28 +59195,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>990.980927307454</v>
+        <v>1066.593215273283</v>
       </c>
       <c r="AB8" t="n">
-        <v>1355.90382373504</v>
+        <v>1459.359891908605</v>
       </c>
       <c r="AC8" t="n">
-        <v>1226.498265820736</v>
+        <v>1320.080632049319</v>
       </c>
       <c r="AD8" t="n">
-        <v>990980.9273074539</v>
+        <v>1066593.215273283</v>
       </c>
       <c r="AE8" t="n">
-        <v>1355903.82373504</v>
+        <v>1459359.891908605</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342036493560791e-06</v>
+        <v>2.763633551381986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.67578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1226498.265820736</v>
+        <v>1320080.632049319</v>
       </c>
     </row>
     <row r="9">
@@ -59301,28 +59301,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>981.1114816810393</v>
+        <v>1056.723769646868</v>
       </c>
       <c r="AB9" t="n">
-        <v>1342.400012819768</v>
+        <v>1445.856080993333</v>
       </c>
       <c r="AC9" t="n">
-        <v>1214.2832396665</v>
+        <v>1307.865605895083</v>
       </c>
       <c r="AD9" t="n">
-        <v>981111.4816810393</v>
+        <v>1056723.769646868</v>
       </c>
       <c r="AE9" t="n">
-        <v>1342400.012819768</v>
+        <v>1445856.080993333</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345485384168026e-06</v>
+        <v>2.770735794758328e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1214283.2396665</v>
+        <v>1307865.605895083</v>
       </c>
     </row>
     <row r="10">
@@ -59407,28 +59407,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>987.2957674811628</v>
+        <v>1062.908055446992</v>
       </c>
       <c r="AB10" t="n">
-        <v>1350.861625482931</v>
+        <v>1454.317693656496</v>
       </c>
       <c r="AC10" t="n">
-        <v>1221.937287893038</v>
+        <v>1315.519654121622</v>
       </c>
       <c r="AD10" t="n">
-        <v>987295.7674811628</v>
+        <v>1062908.055446991</v>
       </c>
       <c r="AE10" t="n">
-        <v>1350861.625482931</v>
+        <v>1454317.693656496</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.345380872331443e-06</v>
+        <v>2.770520575262075e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1221937.287893038</v>
+        <v>1315519.654121622</v>
       </c>
     </row>
   </sheetData>
@@ -59704,28 +59704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2733.831292734478</v>
+        <v>2846.359114676192</v>
       </c>
       <c r="AB2" t="n">
-        <v>3740.548582844067</v>
+        <v>3894.514113201866</v>
       </c>
       <c r="AC2" t="n">
-        <v>3383.555875990196</v>
+        <v>3522.827152222621</v>
       </c>
       <c r="AD2" t="n">
-        <v>2733831.292734478</v>
+        <v>2846359.114676192</v>
       </c>
       <c r="AE2" t="n">
-        <v>3740548.582844067</v>
+        <v>3894514.113201866</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.057849568183027e-07</v>
+        <v>1.596408353962033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.32389322916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3383555.875990196</v>
+        <v>3522827.152222621</v>
       </c>
     </row>
     <row r="3">
@@ -59810,28 +59810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1713.084349874137</v>
+        <v>1803.004216303733</v>
       </c>
       <c r="AB3" t="n">
-        <v>2343.917583445429</v>
+        <v>2466.949911678932</v>
       </c>
       <c r="AC3" t="n">
-        <v>2120.217378990386</v>
+        <v>2231.507674494242</v>
       </c>
       <c r="AD3" t="n">
-        <v>1713084.349874137</v>
+        <v>1803004.216303733</v>
       </c>
       <c r="AE3" t="n">
-        <v>2343917.583445428</v>
+        <v>2466949.911678933</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064787264367043e-06</v>
+        <v>2.109539610592687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.380859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2120217.378990386</v>
+        <v>2231507.674494242</v>
       </c>
     </row>
     <row r="4">
@@ -59916,28 +59916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1487.027105460205</v>
+        <v>1565.7710054156</v>
       </c>
       <c r="AB4" t="n">
-        <v>2034.616088696519</v>
+        <v>2142.356966551177</v>
       </c>
       <c r="AC4" t="n">
-        <v>1840.435184792937</v>
+        <v>1937.893424480419</v>
       </c>
       <c r="AD4" t="n">
-        <v>1487027.105460205</v>
+        <v>1565771.0054156</v>
       </c>
       <c r="AE4" t="n">
-        <v>2034616.088696518</v>
+        <v>2142356.966551177</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.157359961703811e-06</v>
+        <v>2.292943167741171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.150390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1840435.184792937</v>
+        <v>1937893.424480419</v>
       </c>
     </row>
     <row r="5">
@@ -60022,28 +60022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1373.173525172874</v>
+        <v>1452.002676474289</v>
       </c>
       <c r="AB5" t="n">
-        <v>1878.836597281926</v>
+        <v>1986.694119789233</v>
       </c>
       <c r="AC5" t="n">
-        <v>1699.523069401064</v>
+        <v>1797.086821339258</v>
       </c>
       <c r="AD5" t="n">
-        <v>1373173.525172874</v>
+        <v>1452002.676474289</v>
       </c>
       <c r="AE5" t="n">
-        <v>1878836.597281926</v>
+        <v>1986694.119789233</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205860005308509e-06</v>
+        <v>2.389030683551574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1699523.069401064</v>
+        <v>1797086.821339258</v>
       </c>
     </row>
     <row r="6">
@@ -60128,28 +60128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1311.677761649797</v>
+        <v>1390.336320750619</v>
       </c>
       <c r="AB6" t="n">
-        <v>1794.695380628038</v>
+        <v>1902.319491360499</v>
       </c>
       <c r="AC6" t="n">
-        <v>1623.412172371684</v>
+        <v>1720.764789027227</v>
       </c>
       <c r="AD6" t="n">
-        <v>1311677.761649797</v>
+        <v>1390336.320750619</v>
       </c>
       <c r="AE6" t="n">
-        <v>1794695.380628038</v>
+        <v>1902319.491360499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234738661977696e-06</v>
+        <v>2.446244619314199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.26497395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1623412.172371684</v>
+        <v>1720764.789027227</v>
       </c>
     </row>
     <row r="7">
@@ -60234,28 +60234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1264.440827152258</v>
+        <v>1332.00876063345</v>
       </c>
       <c r="AB7" t="n">
-        <v>1730.063722902033</v>
+        <v>1822.513150377845</v>
       </c>
       <c r="AC7" t="n">
-        <v>1564.948869347947</v>
+        <v>1648.575053219055</v>
       </c>
       <c r="AD7" t="n">
-        <v>1264440.827152258</v>
+        <v>1332008.76063345</v>
       </c>
       <c r="AE7" t="n">
-        <v>1730063.722902033</v>
+        <v>1822513.150377845</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254863161398733e-06</v>
+        <v>2.48611495782474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.0517578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1564948.869347947</v>
+        <v>1648575.053219055</v>
       </c>
     </row>
     <row r="8">
@@ -60340,28 +60340,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1216.614642091947</v>
+        <v>1295.35845253879</v>
       </c>
       <c r="AB8" t="n">
-        <v>1664.625826560143</v>
+        <v>1772.366581945253</v>
       </c>
       <c r="AC8" t="n">
-        <v>1505.756273990263</v>
+        <v>1603.214402896518</v>
       </c>
       <c r="AD8" t="n">
-        <v>1216614.642091947</v>
+        <v>1295358.45253879</v>
       </c>
       <c r="AE8" t="n">
-        <v>1664625.826560143</v>
+        <v>1772366.581945253</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.269151555987669e-06</v>
+        <v>2.514422898167223e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1505756.273990263</v>
+        <v>1603214.402896518</v>
       </c>
     </row>
     <row r="9">
@@ -60446,28 +60446,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1184.797095575026</v>
+        <v>1263.540906021869</v>
       </c>
       <c r="AB9" t="n">
-        <v>1621.091655724607</v>
+        <v>1728.832411109717</v>
       </c>
       <c r="AC9" t="n">
-        <v>1466.376943318678</v>
+        <v>1563.835072224933</v>
       </c>
       <c r="AD9" t="n">
-        <v>1184797.095575026</v>
+        <v>1263540.906021869</v>
       </c>
       <c r="AE9" t="n">
-        <v>1621091.655724607</v>
+        <v>1728832.411109717</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.280018785675029e-06</v>
+        <v>2.535952880962915e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.79459635416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1466376.943318678</v>
+        <v>1563835.072224933</v>
       </c>
     </row>
     <row r="10">
@@ -60552,28 +60552,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1157.431371127404</v>
+        <v>1236.175181574248</v>
       </c>
       <c r="AB10" t="n">
-        <v>1583.648664244815</v>
+        <v>1691.389419629925</v>
       </c>
       <c r="AC10" t="n">
-        <v>1432.507458394149</v>
+        <v>1529.965587300404</v>
       </c>
       <c r="AD10" t="n">
-        <v>1157431.371127404</v>
+        <v>1236175.181574248</v>
       </c>
       <c r="AE10" t="n">
-        <v>1583648.664244815</v>
+        <v>1691389.419629925</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.287666095455023e-06</v>
+        <v>2.551103609596921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.7197265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1432507.458394149</v>
+        <v>1529965.587300404</v>
       </c>
     </row>
     <row r="11">
@@ -60658,28 +60658,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1126.46532619546</v>
+        <v>1205.209136642304</v>
       </c>
       <c r="AB11" t="n">
-        <v>1541.279555443444</v>
+        <v>1649.020310828554</v>
       </c>
       <c r="AC11" t="n">
-        <v>1394.181997871363</v>
+        <v>1491.640126777618</v>
       </c>
       <c r="AD11" t="n">
-        <v>1126465.326195461</v>
+        <v>1205209.136642304</v>
       </c>
       <c r="AE11" t="n">
-        <v>1541279.555443444</v>
+        <v>1649020.310828554</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.295816517720542e-06</v>
+        <v>2.567251096693689e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.63834635416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1394181.997871363</v>
+        <v>1491640.126777618</v>
       </c>
     </row>
     <row r="12">
@@ -60764,28 +60764,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1102.659332810132</v>
+        <v>1181.403143256975</v>
       </c>
       <c r="AB12" t="n">
-        <v>1508.707145047331</v>
+        <v>1616.447900432441</v>
       </c>
       <c r="AC12" t="n">
-        <v>1364.71825260779</v>
+        <v>1462.176381514045</v>
       </c>
       <c r="AD12" t="n">
-        <v>1102659.332810132</v>
+        <v>1181403.143256975</v>
       </c>
       <c r="AE12" t="n">
-        <v>1508707.145047331</v>
+        <v>1616447.900432441</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.300545775084486e-06</v>
+        <v>2.576620626243666e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5927734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1364718.25260779</v>
+        <v>1462176.381514045</v>
       </c>
     </row>
     <row r="13">
@@ -60870,28 +60870,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1098.412338160948</v>
+        <v>1177.156148607791</v>
       </c>
       <c r="AB13" t="n">
-        <v>1502.896219604137</v>
+        <v>1610.636974989247</v>
       </c>
       <c r="AC13" t="n">
-        <v>1359.46191373321</v>
+        <v>1456.920042639465</v>
       </c>
       <c r="AD13" t="n">
-        <v>1098412.338160948</v>
+        <v>1177156.148607791</v>
       </c>
       <c r="AE13" t="n">
-        <v>1502896.219604137</v>
+        <v>1610636.974989247</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30255822502659e-06</v>
+        <v>2.58060766009472e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5732421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1359461.91373321</v>
+        <v>1456920.042639465</v>
       </c>
     </row>
     <row r="14">
@@ -60976,28 +60976,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1104.653956032682</v>
+        <v>1183.397766479525</v>
       </c>
       <c r="AB14" t="n">
-        <v>1511.436276536991</v>
+        <v>1619.177031922101</v>
       </c>
       <c r="AC14" t="n">
-        <v>1367.186919618437</v>
+        <v>1464.645048524692</v>
       </c>
       <c r="AD14" t="n">
-        <v>1104653.956032682</v>
+        <v>1183397.766479525</v>
       </c>
       <c r="AE14" t="n">
-        <v>1511436.276536991</v>
+        <v>1619177.031922101</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.302457602529484e-06</v>
+        <v>2.580408308402167e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.57486979166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1367186.919618437</v>
+        <v>1464645.048524692</v>
       </c>
     </row>
   </sheetData>
